--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_재비산_TSP.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_재비산_TSP.xlsx
@@ -1,37 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>01_car_TSP</t>
+  </si>
+  <si>
+    <t>02_taxi_TSP</t>
+  </si>
+  <si>
+    <t>03_van_TSP</t>
+  </si>
+  <si>
+    <t>04_bus_TSP</t>
+  </si>
+  <si>
+    <t>05_LightTruck_TSP</t>
+  </si>
+  <si>
+    <t>06_HeavyTruck_TSP</t>
+  </si>
+  <si>
+    <t>07_SpecialVehicle_TSP</t>
+  </si>
+  <si>
+    <t>Total_TSP (g/h)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +81,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,1266 +397,1363 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>DateTime</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>01_car_TSP</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>02_taxi_TSP</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>03_van_TSP</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>05_LightTruck_TSP</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>06_HeavyTruck_TSP</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>07_SpecialVehicle_TSP</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Total_TSP (g/h)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
         <v>2024081209</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>148.129891501366</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>8.080165564913965</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>48.50975167249935</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
+        <v>35.7756872372241</v>
+      </c>
+      <c r="F2">
         <v>39.20753397973298</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2">
         <v>144.9861905003615</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2">
         <v>9.616407999675589</v>
       </c>
-      <c r="H2" t="n">
-        <v>398.5299412185494</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="I2">
+        <v>434.3056284557735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
         <v>2024081210</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>106.9556288965456</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>6.060124173685475</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>44.09977424772669</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
+        <v>11.17990226163253</v>
+      </c>
+      <c r="F3">
         <v>47.17156431936625</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3">
         <v>120.4122599070799</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3">
         <v>8.414356999716139</v>
       </c>
-      <c r="H3" t="n">
-        <v>333.11370854412</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="I3">
+        <v>344.2936108057526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
         <v>2024081211</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>126.6900387840631</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>4.040082782456983</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>55.12471780965836</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
+        <v>20.12382407093856</v>
+      </c>
+      <c r="F4">
         <v>44.72109344563294</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4">
         <v>117.9548668477517</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4">
         <v>1.202050999959449</v>
       </c>
-      <c r="H4" t="n">
-        <v>349.7328506695226</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="I4">
+        <v>369.8566747404612</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
         <v>2024081212</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>159.3370872399563</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>5.386777043275977</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>50.71474038488569</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
+        <v>20.12382407093856</v>
+      </c>
+      <c r="F5">
         <v>42.88324029033296</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5">
         <v>110.5826876697672</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5">
         <v>1.202050999959449</v>
       </c>
-      <c r="H5" t="n">
-        <v>370.1065836281776</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="I5">
+        <v>390.2304076991161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
         <v>2024081213</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>162.5043382095579</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>9.426859825732958</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>52.91972909727203</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
+        <v>22.35980452326507</v>
+      </c>
+      <c r="F6">
         <v>56.36083009586614</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6">
         <v>122.869652966408</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6">
         <v>4.808203999837795</v>
       </c>
-      <c r="H6" t="n">
-        <v>408.8896141946749</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
+      <c r="I6">
+        <v>431.2494187179399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
         <v>2024081214</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>145.2062752217339</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>5.386777043275977</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>66.14966137159001</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
+        <v>24.59578497559158</v>
+      </c>
+      <c r="F7">
         <v>61.87438956176609</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7">
         <v>110.5826876697672</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7">
         <v>19.23281599935118</v>
       </c>
-      <c r="H7" t="n">
-        <v>408.4326068674844</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
+      <c r="I7">
+        <v>433.028391843076</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
         <v>2024081215</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>160.0679913098643</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>6.060124173685475</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>85.99455978306703</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
+        <v>26.83176542791808</v>
+      </c>
+      <c r="F8">
         <v>42.88324029033296</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8">
         <v>90.92354319514197</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8">
         <v>9.616407999675589</v>
       </c>
-      <c r="H8" t="n">
-        <v>395.5458667517672</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
+      <c r="I8">
+        <v>422.3776321796853</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
         <v>2024081216</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>175.6606114679028</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>4.040082782456983</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>79.37959364590805</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
+        <v>46.95558949885665</v>
+      </c>
+      <c r="F9">
         <v>50.23465291153288</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9">
         <v>71.2643987205167</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9">
         <v>6.010254999797243</v>
       </c>
-      <c r="H9" t="n">
-        <v>386.5895945281147</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
+      <c r="I9">
+        <v>433.5451840269713</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
         <v>2024081217</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>250.2128265985247</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>6.060124173685475</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>66.14966137159001</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
+        <v>40.24764814187711</v>
+      </c>
+      <c r="F10">
         <v>42.27062257189962</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10">
         <v>56.5200403645477</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10">
         <v>4.808203999837795</v>
       </c>
-      <c r="H10" t="n">
-        <v>426.0214790800853</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
+      <c r="I10">
+        <v>466.2691272219624</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
         <v>2024081218</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>249.4819225286166</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>5.386777043275977</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>55.12471780965836</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
+        <v>60.3714722128157</v>
+      </c>
+      <c r="F11">
         <v>24.50470873733311</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11">
         <v>58.97743342387587</v>
       </c>
-      <c r="G11" t="inlineStr"/>
-      <c r="H11" t="n">
-        <v>393.4755595427599</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
+      <c r="I11">
+        <v>453.8470317555756</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
         <v>2024081219</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>193.9332132156044</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>10.10020695614246</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>39.68979682295402</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
+        <v>51.42755040350966</v>
+      </c>
+      <c r="F12">
         <v>28.79303276636641</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12">
         <v>56.5200403645477</v>
       </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="n">
-        <v>329.036290125615</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="I12">
+        <v>380.4638405291247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
         <v>2024081220</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>155.4389322004467</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>7.406818434504466</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>48.50975167249935</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
+        <v>35.7756872372241</v>
+      </c>
+      <c r="F13">
         <v>17.15329611613318</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13">
         <v>100.7531154324546</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13">
         <v>1.202050999959449</v>
       </c>
-      <c r="H13" t="n">
-        <v>330.4639648559977</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
+      <c r="I13">
+        <v>366.2396520932219</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
         <v>2024081221</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>116.213747115381</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>5.386777043275977</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>26.45986454863601</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
+        <v>20.12382407093856</v>
+      </c>
+      <c r="F14">
         <v>12.86497208709988</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14">
         <v>103.2105084917828</v>
       </c>
-      <c r="G14" t="inlineStr"/>
-      <c r="H14" t="n">
-        <v>264.1358692861756</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
+      <c r="I14">
+        <v>284.2596933571142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
         <v>2024081222</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>76.50129265037656</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>7.406818434504466</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>26.45986454863601</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
+        <v>20.12382407093856</v>
+      </c>
+      <c r="F15">
         <v>15.3154429608332</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15">
         <v>63.89221954253218</v>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="n">
-        <v>189.5756381368824</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
+      <c r="I15">
+        <v>209.699462207821</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
         <v>2024081223</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>38.25064632518828</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>6.060124173685475</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>15.43492098670434</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
+        <v>15.65186316628555</v>
+      </c>
+      <c r="F16">
         <v>6.738794902766606</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16">
         <v>49.14786118656323</v>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="n">
-        <v>115.6323475749079</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
+      <c r="I16">
+        <v>131.2842107411935</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
         <v>2024081300</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>27.77435465650613</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>5.386777043275977</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>2.204988712386334</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
+        <v>11.17990226163253</v>
+      </c>
+      <c r="F17">
         <v>7.351412621199932</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17">
         <v>31.94610977126609</v>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="n">
-        <v>74.66364280463446</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
+      <c r="I17">
+        <v>85.843545066267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
         <v>2024081301</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>16.32352422794659</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>9.426859825732958</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>8.819954849545336</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
+        <v>6.707941356979521</v>
+      </c>
+      <c r="F18">
         <v>6.126177184333279</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18">
         <v>31.94610977126609</v>
       </c>
-      <c r="G18" t="inlineStr"/>
-      <c r="H18" t="n">
-        <v>72.64262585882425</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
+      <c r="I18">
+        <v>79.35056721580376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
         <v>2024081302</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>12.91263856837566</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>4.040082782456983</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>2.204988712386334</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19">
         <v>6.126177184333279</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19">
         <v>34.40350283059427</v>
       </c>
-      <c r="G19" t="inlineStr"/>
-      <c r="H19" t="n">
+      <c r="I19">
         <v>59.68739007814654</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="n">
+    <row r="20" spans="1:9">
+      <c r="A20">
         <v>2024081303</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>11.45083042855956</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>2.020041391228491</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>8.819954849545336</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
+        <v>2.235980452326506</v>
+      </c>
+      <c r="F20">
         <v>10.41450121336657</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20">
         <v>46.69046812723506</v>
       </c>
-      <c r="G20" t="inlineStr"/>
-      <c r="H20" t="n">
-        <v>79.39579600993503</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
+      <c r="I20">
+        <v>81.63177646226151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
         <v>2024081304</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>23.63256492702715</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>2.020041391228491</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>13.22993227431801</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
+        <v>6.707941356979521</v>
+      </c>
+      <c r="F21">
         <v>9.801883494933245</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21">
         <v>105.6679015511109</v>
       </c>
-      <c r="G21" t="inlineStr"/>
-      <c r="H21" t="n">
-        <v>154.3523236386178</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
+      <c r="I21">
+        <v>161.0602649955974</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
         <v>2024081305</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>62.12684594218478</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>2.020041391228491</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>44.09977424772669</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
+        <v>20.12382407093856</v>
+      </c>
+      <c r="F22">
         <v>15.92806067926652</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22">
         <v>199.0488378055811</v>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="n">
-        <v>323.2235600659876</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
+      <c r="I22">
+        <v>343.3473841369262</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
         <v>2024081306</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>142.7699283220403</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>4.040082782456983</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>37.48480811056768</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
+        <v>76.02333537910123</v>
+      </c>
+      <c r="F23">
         <v>42.88324029033296</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23">
         <v>181.8470863902839</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23">
         <v>4.808203999837795</v>
       </c>
-      <c r="H23" t="n">
-        <v>413.8333498955197</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
+      <c r="I23">
+        <v>489.8566852746209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
         <v>2024081307</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>184.6750949967688</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>4.713429912866479</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>37.48480811056768</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
+        <v>46.95558949885665</v>
+      </c>
+      <c r="F24">
         <v>38.59491626129965</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24">
         <v>147.4435835596897</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24">
         <v>4.808203999837795</v>
       </c>
-      <c r="H24" t="n">
-        <v>417.7200368410301</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="n">
+      <c r="I24">
+        <v>464.6756263398867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
         <v>2024081308</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>217.0785087626927</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>3.366735652047486</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>63.94467265920368</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
+        <v>42.48362859420362</v>
+      </c>
+      <c r="F25">
         <v>32.46873907696637</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25">
         <v>117.9548668477517</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25">
         <v>7.212305999756691</v>
       </c>
-      <c r="H25" t="n">
-        <v>442.0258289984186</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="n">
+      <c r="I25">
+        <v>484.5094575926223</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
         <v>2024081309</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>176.8787849177497</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>10.77355408655195</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>57.3297065220447</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
+        <v>42.48362859420362</v>
+      </c>
+      <c r="F26">
         <v>49.00941747466623</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26">
         <v>176.9323002716276</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26">
         <v>8.414356999716139</v>
       </c>
-      <c r="H26" t="n">
-        <v>479.3381202723564</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
+      <c r="I26">
+        <v>521.8217488665599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
         <v>2024081310</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>127.9082122339099</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>8.080165564913965</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>52.91972909727203</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
+        <v>15.65186316628555</v>
+      </c>
+      <c r="F27">
         <v>59.4239186880328</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27">
         <v>147.4435835596897</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27">
         <v>7.212305999756691</v>
       </c>
-      <c r="H27" t="n">
-        <v>402.987915143575</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
+      <c r="I27">
+        <v>418.6397783098606</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
         <v>2024081311</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>138.1408692126226</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>4.713429912866479</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>59.53469523443104</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
+        <v>22.35980452326507</v>
+      </c>
+      <c r="F28">
         <v>49.00941747466623</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28">
         <v>127.7844390850644</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28">
         <v>1.202050999959449</v>
       </c>
-      <c r="H28" t="n">
-        <v>380.3849019196102</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="n">
+      <c r="I28">
+        <v>402.7447064428753</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
         <v>2024081312</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>152.5153159208144</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>7.406818434504466</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>44.09977424772669</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
+        <v>20.12382407093856</v>
+      </c>
+      <c r="F29">
         <v>50.23465291153288</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29">
         <v>88.46615013581381</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29">
         <v>4.808203999837795</v>
       </c>
-      <c r="H29" t="n">
-        <v>347.53091565023</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="n">
+      <c r="I29">
+        <v>367.6547397211686</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
         <v>2024081313</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>167.6206666989142</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>8.080165564913965</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>55.12471780965836</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
+        <v>20.12382407093856</v>
+      </c>
+      <c r="F30">
         <v>39.82015169816631</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30">
         <v>103.2105084917828</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30">
         <v>1.202050999959449</v>
       </c>
-      <c r="H30" t="n">
-        <v>375.0582612633951</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
+      <c r="I30">
+        <v>395.1820853343336</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31">
         <v>2024081314</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>156.9007403402628</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>6.060124173685475</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>55.12471780965836</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
+        <v>17.88784361861205</v>
+      </c>
+      <c r="F31">
         <v>60.03653640646614</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31">
         <v>98.29572237312647</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31">
         <v>6.010254999797243</v>
       </c>
-      <c r="H31" t="n">
-        <v>382.4280961029966</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
+      <c r="I31">
+        <v>400.3159397216086</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
+      <c r="A32">
         <v>2024081315</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>177.6096889876578</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>8.753512695323463</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>41.89478553534035</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
+        <v>17.88784361861205</v>
+      </c>
+      <c r="F32">
         <v>42.27062257189962</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32">
         <v>103.2105084917828</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32">
         <v>3.606152999878346</v>
       </c>
-      <c r="H32" t="n">
-        <v>377.3452712818824</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
+      <c r="I32">
+        <v>395.2331149004945</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33">
         <v>2024081316</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>192.7150397657575</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>5.386777043275977</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>77.17460493352169</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
+        <v>42.48362859420362</v>
+      </c>
+      <c r="F33">
         <v>51.45988834839953</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33">
         <v>61.43482648320401</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33">
         <v>6.010254999797243</v>
       </c>
-      <c r="H33" t="n">
-        <v>394.181391573956</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
+      <c r="I33">
+        <v>436.6650201681596</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34">
         <v>2024081317</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>230.4784167110073</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>7.406818434504466</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>70.55963879636269</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
+        <v>49.19156995118315</v>
+      </c>
+      <c r="F34">
         <v>34.91920995069968</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34">
         <v>39.31828894925057</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34">
         <v>1.202050999959449</v>
       </c>
-      <c r="H34" t="n">
-        <v>383.8844238417842</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
+      <c r="I34">
+        <v>433.0759937929673</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
+      <c r="A35">
         <v>2024081318</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>242.6601512094748</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>4.713429912866479</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>50.71474038488569</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
+        <v>60.3714722128157</v>
+      </c>
+      <c r="F35">
         <v>18.37853155299983</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35">
         <v>54.06264730521955</v>
       </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
-        <v>370.5295003654464</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
+      <c r="I35">
+        <v>430.9009725782621</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
+      <c r="A36">
         <v>2024081319</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>226.5802616714975</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>3.366735652047486</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>52.91972909727203</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
+        <v>44.71960904653014</v>
+      </c>
+      <c r="F36">
         <v>25.72994417419977</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36">
         <v>81.09397095782931</v>
       </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="n">
-        <v>389.690641552846</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
+      <c r="I36">
+        <v>434.4102505993762</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
+      <c r="A37">
         <v>2024081320</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>140.3335814223468</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>7.406818434504466</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>48.50975167249935</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
+        <v>53.66353085583616</v>
+      </c>
+      <c r="F37">
         <v>12.25235436866656</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37">
         <v>83.55136401715748</v>
       </c>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="n">
-        <v>292.0538699151747</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
+      <c r="I37">
+        <v>345.7174007710109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
+      <c r="A38">
         <v>2024081321</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>120.3555368448599</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>6.060124173685475</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>39.68979682295402</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
+        <v>22.35980452326507</v>
+      </c>
+      <c r="F38">
         <v>16.54067839769985</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38">
         <v>81.09397095782931</v>
       </c>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="n">
-        <v>263.7401071970286</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
+      <c r="I38">
+        <v>286.0999117202937</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
+      <c r="A39">
         <v>2024081322</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>83.5666986594878</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>9.426859825732958</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>24.25487583624967</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
+        <v>29.06774588024459</v>
+      </c>
+      <c r="F39">
         <v>9.801883494933245</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39">
         <v>66.34961260186034</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39">
         <v>1.202050999959449</v>
       </c>
-      <c r="H39" t="n">
-        <v>194.6019814182235</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
+      <c r="I39">
+        <v>223.669727298468</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40">
         <v>2024081323</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>52.13782365344137</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>6.060124173685475</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>8.819954849545336</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
+        <v>15.65186316628555</v>
+      </c>
+      <c r="F40">
         <v>9.189265776499916</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40">
         <v>31.94610977126609</v>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="n">
-        <v>108.1532782244382</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
+      <c r="I40">
+        <v>123.8051413907237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
+      <c r="A41">
         <v>2024081400</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>28.01798934647549</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>9.426859825732958</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>8.819954849545336</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
+        <v>11.17990226163253</v>
+      </c>
+      <c r="F41">
         <v>9.801883494933245</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41">
         <v>36.86089588992242</v>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="n">
-        <v>92.92758340660944</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
+      <c r="I41">
+        <v>104.107485668242</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42">
         <v>2024081401</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>16.32352422794659</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>5.386777043275977</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>6.614966137159003</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
+        <v>8.943921809306024</v>
+      </c>
+      <c r="F42">
         <v>9.189265776499916</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42">
         <v>24.57393059328162</v>
       </c>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="n">
-        <v>62.0884637781631</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
+      <c r="I42">
+        <v>71.03238558746912</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43">
         <v>2024081402</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>12.42536918843697</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>4.040082782456983</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>4.409977424772668</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43">
         <v>6.126177184333279</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43">
         <v>44.2330750679069</v>
       </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="n">
+      <c r="I43">
         <v>71.2346816479068</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="n">
+    <row r="44" spans="1:9">
+      <c r="A44">
         <v>2024081403</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>9.501752908804729</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>2.020041391228491</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>4.409977424772668</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
+        <v>2.235980452326506</v>
+      </c>
+      <c r="F44">
         <v>9.801883494933245</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44">
         <v>56.5200403645477</v>
       </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>82.25369558428683</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
+      <c r="I44">
+        <v>84.48967603661333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45">
         <v>2024081404</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>28.74889341638356</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>3.366735652047486</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>17.63990969909067</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
+        <v>11.17990226163253</v>
+      </c>
+      <c r="F45">
         <v>11.63973665023323</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45">
         <v>93.38093625447011</v>
       </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
-        <v>154.7762116722251</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
+      <c r="I45">
+        <v>165.9561139338576</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46">
         <v>2024081405</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>50.91965020359458</v>
       </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>44.09977424772669</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
+        <v>26.83176542791808</v>
+      </c>
+      <c r="F46">
         <v>20.21638470829982</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46">
         <v>203.9636239242373</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46">
         <v>3.606152999878346</v>
       </c>
-      <c r="H46" t="n">
-        <v>322.8055860837368</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
+      <c r="I46">
+        <v>349.6373515116549</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47">
         <v>2024081406</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>150.3226037110902</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>5.386777043275977</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>50.71474038488569</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
+        <v>76.02333537910123</v>
+      </c>
+      <c r="F47">
         <v>43.49585800876628</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47">
         <v>208.8784100428936</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47">
         <v>2.404101999918897</v>
       </c>
-      <c r="H47" t="n">
-        <v>461.2024911908307</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
+      <c r="I47">
+        <v>537.2258265699319</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48">
         <v>2024081407</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>179.5587665074125</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>10.10020695614246</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>33.07483068579501</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
+        <v>49.19156995118315</v>
+      </c>
+      <c r="F48">
         <v>39.82015169816631</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48">
         <v>154.8157627376741</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48">
         <v>6.010254999797243</v>
       </c>
-      <c r="H48" t="n">
-        <v>423.3799735849877</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
+      <c r="I48">
+        <v>472.5715435361709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
+      <c r="A49">
         <v>2024081408</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>228.2857045012829</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>2.693388521637988</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>61.73968394681738</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
+        <v>44.71960904653014</v>
+      </c>
+      <c r="F49">
         <v>36.14444538756634</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49">
         <v>140.0714043817052</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49">
         <v>1.202050999959449</v>
       </c>
-      <c r="H49" t="n">
-        <v>470.1366777389692</v>
+      <c r="I49">
+        <v>514.8562867854994</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_재비산_TSP.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>148.129891501366</v>
+        <v>284.7287136044224</v>
       </c>
       <c r="C2">
-        <v>8.080165564913965</v>
+        <v>15.53133620561307</v>
       </c>
       <c r="D2">
-        <v>48.50975167249935</v>
+        <v>93.24329513097182</v>
       </c>
       <c r="E2">
-        <v>35.7756872372241</v>
+        <v>68.7664407374188</v>
       </c>
       <c r="F2">
-        <v>39.20753397973298</v>
+        <v>75.36298447601371</v>
       </c>
       <c r="G2">
-        <v>144.9861905003615</v>
+        <v>278.6860308420121</v>
       </c>
       <c r="H2">
-        <v>9.616407999675589</v>
+        <v>18.48423334069379</v>
       </c>
       <c r="I2">
-        <v>434.3056284557735</v>
+        <v>834.8030343371457</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>106.9556288965456</v>
+        <v>205.5853705137193</v>
       </c>
       <c r="C3">
-        <v>6.060124173685475</v>
+        <v>11.6485021542098</v>
       </c>
       <c r="D3">
-        <v>44.09977424772669</v>
+        <v>84.76663193724713</v>
       </c>
       <c r="E3">
-        <v>11.17990226163253</v>
+        <v>21.48951273044337</v>
       </c>
       <c r="F3">
-        <v>47.17156431936625</v>
+        <v>90.67109069770396</v>
       </c>
       <c r="G3">
-        <v>120.4122599070799</v>
+        <v>231.4511103603152</v>
       </c>
       <c r="H3">
-        <v>8.414356999716139</v>
+        <v>16.17370417310707</v>
       </c>
       <c r="I3">
-        <v>344.2936108057526</v>
+        <v>661.785922566746</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>126.6900387840631</v>
+        <v>243.5179787406243</v>
       </c>
       <c r="C4">
-        <v>4.040082782456983</v>
+        <v>7.765668102806535</v>
       </c>
       <c r="D4">
-        <v>55.12471780965836</v>
+        <v>105.9582899215589</v>
       </c>
       <c r="E4">
-        <v>20.12382407093856</v>
+        <v>38.68112291479809</v>
       </c>
       <c r="F4">
-        <v>44.72109344563294</v>
+        <v>85.96090416795312</v>
       </c>
       <c r="G4">
-        <v>117.9548668477517</v>
+        <v>226.7276183121456</v>
       </c>
       <c r="H4">
-        <v>1.202050999959449</v>
+        <v>2.310529167586724</v>
       </c>
       <c r="I4">
-        <v>369.8566747404612</v>
+        <v>710.9221113274733</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>159.3370872399563</v>
+        <v>306.2706886468623</v>
       </c>
       <c r="C5">
-        <v>5.386777043275977</v>
+        <v>10.35422413707538</v>
       </c>
       <c r="D5">
-        <v>50.71474038488569</v>
+        <v>97.48162672783418</v>
       </c>
       <c r="E5">
-        <v>20.12382407093856</v>
+        <v>38.68112291479809</v>
       </c>
       <c r="F5">
-        <v>42.88324029033296</v>
+        <v>82.42826427063999</v>
       </c>
       <c r="G5">
-        <v>110.5826876697672</v>
+        <v>212.5571421676364</v>
       </c>
       <c r="H5">
-        <v>1.202050999959449</v>
+        <v>2.310529167586724</v>
       </c>
       <c r="I5">
-        <v>390.2304076991161</v>
+        <v>750.0835980324331</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>162.5043382095579</v>
+        <v>312.3586381153777</v>
       </c>
       <c r="C6">
-        <v>9.426859825732958</v>
+        <v>18.11989223988192</v>
       </c>
       <c r="D6">
-        <v>52.91972909727203</v>
+        <v>101.7199583246965</v>
       </c>
       <c r="E6">
-        <v>22.35980452326507</v>
+        <v>42.97902546088675</v>
       </c>
       <c r="F6">
-        <v>56.36083009586614</v>
+        <v>108.3342901842697</v>
       </c>
       <c r="G6">
-        <v>122.869652966408</v>
+        <v>236.1746024084849</v>
       </c>
       <c r="H6">
-        <v>4.808203999837795</v>
+        <v>9.242116670346897</v>
       </c>
       <c r="I6">
-        <v>431.2494187179399</v>
+        <v>828.9285234039445</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>145.2062752217339</v>
+        <v>279.1090679411772</v>
       </c>
       <c r="C7">
-        <v>5.386777043275977</v>
+        <v>10.35422413707538</v>
       </c>
       <c r="D7">
-        <v>66.14966137159001</v>
+        <v>127.1499479058707</v>
       </c>
       <c r="E7">
-        <v>24.59578497559158</v>
+        <v>47.27692800697542</v>
       </c>
       <c r="F7">
-        <v>61.87438956176609</v>
+        <v>118.9322098762091</v>
       </c>
       <c r="G7">
-        <v>110.5826876697672</v>
+        <v>212.5571421676364</v>
       </c>
       <c r="H7">
-        <v>19.23281599935118</v>
+        <v>36.96846668138759</v>
       </c>
       <c r="I7">
-        <v>433.028391843076</v>
+        <v>832.3479867163318</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>160.0679913098643</v>
+        <v>307.6756000626732</v>
       </c>
       <c r="C8">
-        <v>6.060124173685475</v>
+        <v>11.6485021542098</v>
       </c>
       <c r="D8">
-        <v>85.99455978306703</v>
+        <v>165.2949322776319</v>
       </c>
       <c r="E8">
-        <v>26.83176542791808</v>
+        <v>51.57483055306409</v>
       </c>
       <c r="F8">
-        <v>42.88324029033296</v>
+        <v>82.42826427063999</v>
       </c>
       <c r="G8">
-        <v>90.92354319514197</v>
+        <v>174.7692057822788</v>
       </c>
       <c r="H8">
-        <v>9.616407999675589</v>
+        <v>18.48423334069379</v>
       </c>
       <c r="I8">
-        <v>422.3776321796853</v>
+        <v>811.8755684411915</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>175.6606114679028</v>
+        <v>337.6470435999809</v>
       </c>
       <c r="C9">
-        <v>4.040082782456983</v>
+        <v>7.765668102806535</v>
       </c>
       <c r="D9">
-        <v>79.37959364590805</v>
+        <v>152.5799374870448</v>
       </c>
       <c r="E9">
-        <v>46.95558949885665</v>
+        <v>90.25595346786218</v>
       </c>
       <c r="F9">
-        <v>50.23465291153288</v>
+        <v>96.55882385989253</v>
       </c>
       <c r="G9">
-        <v>71.2643987205167</v>
+        <v>136.9812693969213</v>
       </c>
       <c r="H9">
-        <v>6.010254999797243</v>
+        <v>11.55264583793362</v>
       </c>
       <c r="I9">
-        <v>433.5451840269713</v>
+        <v>833.3413417524418</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>250.2128265985247</v>
+        <v>480.9480080127332</v>
       </c>
       <c r="C10">
-        <v>6.060124173685475</v>
+        <v>11.6485021542098</v>
       </c>
       <c r="D10">
-        <v>66.14966137159001</v>
+        <v>127.1499479058707</v>
       </c>
       <c r="E10">
-        <v>40.24764814187711</v>
+        <v>77.36224582959618</v>
       </c>
       <c r="F10">
-        <v>42.27062257189962</v>
+        <v>81.25071763820227</v>
       </c>
       <c r="G10">
-        <v>56.5200403645477</v>
+        <v>108.6403171079031</v>
       </c>
       <c r="H10">
-        <v>4.808203999837795</v>
+        <v>9.242116670346897</v>
       </c>
       <c r="I10">
-        <v>466.2691272219624</v>
+        <v>896.2418553188622</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>249.4819225286166</v>
+        <v>479.5430965969218</v>
       </c>
       <c r="C11">
-        <v>5.386777043275977</v>
+        <v>10.35422413707538</v>
       </c>
       <c r="D11">
-        <v>55.12471780965836</v>
+        <v>105.9582899215589</v>
       </c>
       <c r="E11">
-        <v>60.3714722128157</v>
+        <v>116.0433687443942</v>
       </c>
       <c r="F11">
-        <v>24.50470873733311</v>
+        <v>47.10186529750855</v>
       </c>
       <c r="G11">
-        <v>58.97743342387587</v>
+        <v>113.3638091560728</v>
       </c>
       <c r="I11">
-        <v>453.8470317555756</v>
+        <v>872.3646538535316</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>193.9332132156044</v>
+        <v>372.7698289952634</v>
       </c>
       <c r="C12">
-        <v>10.10020695614246</v>
+        <v>19.41417025701634</v>
       </c>
       <c r="D12">
-        <v>39.68979682295402</v>
+        <v>76.28996874352241</v>
       </c>
       <c r="E12">
-        <v>51.42755040350966</v>
+        <v>98.85175856003951</v>
       </c>
       <c r="F12">
-        <v>28.79303276636641</v>
+        <v>55.34469172457256</v>
       </c>
       <c r="G12">
-        <v>56.5200403645477</v>
+        <v>108.6403171079031</v>
       </c>
       <c r="I12">
-        <v>380.4638405291247</v>
+        <v>731.3107353883173</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>155.4389322004467</v>
+        <v>298.7778277625354</v>
       </c>
       <c r="C13">
-        <v>7.406818434504466</v>
+        <v>14.23705818847865</v>
       </c>
       <c r="D13">
-        <v>48.50975167249935</v>
+        <v>93.24329513097182</v>
       </c>
       <c r="E13">
-        <v>35.7756872372241</v>
+        <v>68.7664407374188</v>
       </c>
       <c r="F13">
-        <v>17.15329611613318</v>
+        <v>32.97130570825599</v>
       </c>
       <c r="G13">
-        <v>100.7531154324546</v>
+        <v>193.6631739749576</v>
       </c>
       <c r="H13">
-        <v>1.202050999959449</v>
+        <v>2.310529167586724</v>
       </c>
       <c r="I13">
-        <v>366.2396520932219</v>
+        <v>703.9696306702051</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>116.213747115381</v>
+        <v>223.3809151139957</v>
       </c>
       <c r="C14">
-        <v>5.386777043275977</v>
+        <v>10.35422413707538</v>
       </c>
       <c r="D14">
-        <v>26.45986454863601</v>
+        <v>50.85997916234825</v>
       </c>
       <c r="E14">
-        <v>20.12382407093856</v>
+        <v>38.68112291479809</v>
       </c>
       <c r="F14">
-        <v>12.86497208709988</v>
+        <v>24.72847928119199</v>
       </c>
       <c r="G14">
-        <v>103.2105084917828</v>
+        <v>198.3866660231273</v>
       </c>
       <c r="I14">
-        <v>284.2596933571142</v>
+        <v>546.3913866325368</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>76.50129265037656</v>
+        <v>147.0473948549154</v>
       </c>
       <c r="C15">
-        <v>7.406818434504466</v>
+        <v>14.23705818847865</v>
       </c>
       <c r="D15">
-        <v>26.45986454863601</v>
+        <v>50.85997916234825</v>
       </c>
       <c r="E15">
-        <v>20.12382407093856</v>
+        <v>38.68112291479809</v>
       </c>
       <c r="F15">
-        <v>15.3154429608332</v>
+        <v>29.43866581094285</v>
       </c>
       <c r="G15">
-        <v>63.89221954253218</v>
+        <v>122.8107932524122</v>
       </c>
       <c r="I15">
-        <v>209.699462207821</v>
+        <v>403.0750141838955</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>38.25064632518828</v>
+        <v>73.52369742745772</v>
       </c>
       <c r="C16">
-        <v>6.060124173685475</v>
+        <v>11.6485021542098</v>
       </c>
       <c r="D16">
-        <v>15.43492098670434</v>
+        <v>29.66832117803649</v>
       </c>
       <c r="E16">
-        <v>15.65186316628555</v>
+        <v>30.08531782262072</v>
       </c>
       <c r="F16">
-        <v>6.738794902766606</v>
+        <v>12.95301295681485</v>
       </c>
       <c r="G16">
-        <v>49.14786118656323</v>
+        <v>94.46984096339398</v>
       </c>
       <c r="I16">
-        <v>131.2842107411935</v>
+        <v>252.3486925025336</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>27.77435465650613</v>
+        <v>53.38663380082921</v>
       </c>
       <c r="C17">
-        <v>5.386777043275977</v>
+        <v>10.35422413707538</v>
       </c>
       <c r="D17">
-        <v>2.204988712386334</v>
+        <v>4.238331596862355</v>
       </c>
       <c r="E17">
-        <v>11.17990226163253</v>
+        <v>21.48951273044337</v>
       </c>
       <c r="F17">
-        <v>7.351412621199932</v>
+        <v>14.13055958925257</v>
       </c>
       <c r="G17">
-        <v>31.94610977126609</v>
+        <v>61.4053966262061</v>
       </c>
       <c r="I17">
-        <v>85.843545066267</v>
+        <v>165.004658480669</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>16.32352422794659</v>
+        <v>31.37635495311889</v>
       </c>
       <c r="C18">
-        <v>9.426859825732958</v>
+        <v>18.11989223988192</v>
       </c>
       <c r="D18">
-        <v>8.819954849545336</v>
+        <v>16.95332638744942</v>
       </c>
       <c r="E18">
-        <v>6.707941356979521</v>
+        <v>12.89370763826602</v>
       </c>
       <c r="F18">
-        <v>6.126177184333279</v>
+        <v>11.77546632437714</v>
       </c>
       <c r="G18">
-        <v>31.94610977126609</v>
+        <v>61.4053966262061</v>
       </c>
       <c r="I18">
-        <v>79.35056721580376</v>
+        <v>152.5241441692995</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>12.91263856837566</v>
+        <v>24.82010167933285</v>
       </c>
       <c r="C19">
-        <v>4.040082782456983</v>
+        <v>7.765668102806535</v>
       </c>
       <c r="D19">
-        <v>2.204988712386334</v>
+        <v>4.238331596862355</v>
       </c>
       <c r="F19">
-        <v>6.126177184333279</v>
+        <v>11.77546632437714</v>
       </c>
       <c r="G19">
-        <v>34.40350283059427</v>
+        <v>66.12888867437579</v>
       </c>
       <c r="I19">
-        <v>59.68739007814654</v>
+        <v>114.7284563777547</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>11.45083042855956</v>
+        <v>22.0102788477103</v>
       </c>
       <c r="C20">
-        <v>2.020041391228491</v>
+        <v>3.882834051403267</v>
       </c>
       <c r="D20">
-        <v>8.819954849545336</v>
+        <v>16.95332638744942</v>
       </c>
       <c r="E20">
-        <v>2.235980452326506</v>
+        <v>4.297902546088675</v>
       </c>
       <c r="F20">
-        <v>10.41450121336657</v>
+        <v>20.01829275144114</v>
       </c>
       <c r="G20">
-        <v>46.69046812723506</v>
+        <v>89.74634891522427</v>
       </c>
       <c r="I20">
-        <v>81.63177646226151</v>
+        <v>156.9089834993171</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>23.63256492702715</v>
+        <v>45.42546911123186</v>
       </c>
       <c r="C21">
-        <v>2.020041391228491</v>
+        <v>3.882834051403267</v>
       </c>
       <c r="D21">
-        <v>13.22993227431801</v>
+        <v>25.42998958117412</v>
       </c>
       <c r="E21">
-        <v>6.707941356979521</v>
+        <v>12.89370763826602</v>
       </c>
       <c r="F21">
-        <v>9.801883494933245</v>
+        <v>18.84074611900343</v>
       </c>
       <c r="G21">
-        <v>105.6679015511109</v>
+        <v>203.1101580712971</v>
       </c>
       <c r="I21">
-        <v>161.0602649955974</v>
+        <v>309.5829045723758</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>62.12684594218478</v>
+        <v>119.41747034396</v>
       </c>
       <c r="C22">
-        <v>2.020041391228491</v>
+        <v>3.882834051403267</v>
       </c>
       <c r="D22">
-        <v>44.09977424772669</v>
+        <v>84.76663193724713</v>
       </c>
       <c r="E22">
-        <v>20.12382407093856</v>
+        <v>38.68112291479809</v>
       </c>
       <c r="F22">
-        <v>15.92806067926652</v>
+        <v>30.61621244338055</v>
       </c>
       <c r="G22">
-        <v>199.0488378055811</v>
+        <v>382.6028559017454</v>
       </c>
       <c r="I22">
-        <v>343.3473841369262</v>
+        <v>659.9671275925346</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>142.7699283220403</v>
+        <v>274.4260298884728</v>
       </c>
       <c r="C23">
-        <v>4.040082782456983</v>
+        <v>7.765668102806535</v>
       </c>
       <c r="D23">
-        <v>37.48480811056768</v>
+        <v>72.05163714666004</v>
       </c>
       <c r="E23">
-        <v>76.02333537910123</v>
+        <v>146.1286865670149</v>
       </c>
       <c r="F23">
-        <v>42.88324029033296</v>
+        <v>82.42826427063999</v>
       </c>
       <c r="G23">
-        <v>181.8470863902839</v>
+        <v>349.5384115645576</v>
       </c>
       <c r="H23">
-        <v>4.808203999837795</v>
+        <v>9.242116670346897</v>
       </c>
       <c r="I23">
-        <v>489.8566852746209</v>
+        <v>941.5808142104987</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>184.6750949967688</v>
+        <v>354.9742843949869</v>
       </c>
       <c r="C24">
-        <v>4.713429912866479</v>
+        <v>9.059946119940959</v>
       </c>
       <c r="D24">
-        <v>37.48480811056768</v>
+        <v>72.05163714666004</v>
       </c>
       <c r="E24">
-        <v>46.95558949885665</v>
+        <v>90.25595346786218</v>
       </c>
       <c r="F24">
-        <v>38.59491626129965</v>
+        <v>74.18543784357597</v>
       </c>
       <c r="G24">
-        <v>147.4435835596897</v>
+        <v>283.409522890182</v>
       </c>
       <c r="H24">
-        <v>4.808203999837795</v>
+        <v>9.242116670346897</v>
       </c>
       <c r="I24">
-        <v>464.6756263398867</v>
+        <v>893.178898533555</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>217.0785087626927</v>
+        <v>417.2586904959546</v>
       </c>
       <c r="C25">
-        <v>3.366735652047486</v>
+        <v>6.471390085672115</v>
       </c>
       <c r="D25">
-        <v>63.94467265920368</v>
+        <v>122.9116163090083</v>
       </c>
       <c r="E25">
-        <v>42.48362859420362</v>
+        <v>81.66014837568481</v>
       </c>
       <c r="F25">
-        <v>32.46873907696637</v>
+        <v>62.40997151919885</v>
       </c>
       <c r="G25">
-        <v>117.9548668477517</v>
+        <v>226.7276183121456</v>
       </c>
       <c r="H25">
-        <v>7.212305999756691</v>
+        <v>13.86317500552035</v>
       </c>
       <c r="I25">
-        <v>484.5094575926223</v>
+        <v>931.3026101031846</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>176.8787849177497</v>
+        <v>339.9885626263332</v>
       </c>
       <c r="C26">
-        <v>10.77355408655195</v>
+        <v>20.70844827415076</v>
       </c>
       <c r="D26">
-        <v>57.3297065220447</v>
+        <v>110.1966215184213</v>
       </c>
       <c r="E26">
-        <v>42.48362859420362</v>
+        <v>81.66014837568481</v>
       </c>
       <c r="F26">
-        <v>49.00941747466623</v>
+        <v>94.20373059501711</v>
       </c>
       <c r="G26">
-        <v>176.9323002716276</v>
+        <v>340.0914274682183</v>
       </c>
       <c r="H26">
-        <v>8.414356999716139</v>
+        <v>16.17370417310707</v>
       </c>
       <c r="I26">
-        <v>521.8217488665599</v>
+        <v>1003.022643030932</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>127.9082122339099</v>
+        <v>245.8594977669764</v>
       </c>
       <c r="C27">
-        <v>8.080165564913965</v>
+        <v>15.53133620561307</v>
       </c>
       <c r="D27">
-        <v>52.91972909727203</v>
+        <v>101.7199583246965</v>
       </c>
       <c r="E27">
-        <v>15.65186316628555</v>
+        <v>30.08531782262072</v>
       </c>
       <c r="F27">
-        <v>59.4239186880328</v>
+        <v>114.2220233464583</v>
       </c>
       <c r="G27">
-        <v>147.4435835596897</v>
+        <v>283.409522890182</v>
       </c>
       <c r="H27">
-        <v>7.212305999756691</v>
+        <v>13.86317500552035</v>
       </c>
       <c r="I27">
-        <v>418.6397783098606</v>
+        <v>804.6908313620672</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>138.1408692126226</v>
+        <v>265.5282575883346</v>
       </c>
       <c r="C28">
-        <v>4.713429912866479</v>
+        <v>9.059946119940959</v>
       </c>
       <c r="D28">
-        <v>59.53469523443104</v>
+        <v>114.4349531152836</v>
       </c>
       <c r="E28">
-        <v>22.35980452326507</v>
+        <v>42.97902546088675</v>
       </c>
       <c r="F28">
-        <v>49.00941747466623</v>
+        <v>94.20373059501711</v>
       </c>
       <c r="G28">
-        <v>127.7844390850644</v>
+        <v>245.6215865048244</v>
       </c>
       <c r="H28">
-        <v>1.202050999959449</v>
+        <v>2.310529167586724</v>
       </c>
       <c r="I28">
-        <v>402.7447064428753</v>
+        <v>774.1380285518742</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>152.5153159208144</v>
+        <v>293.1581820992901</v>
       </c>
       <c r="C29">
-        <v>7.406818434504466</v>
+        <v>14.23705818847865</v>
       </c>
       <c r="D29">
-        <v>44.09977424772669</v>
+        <v>84.76663193724713</v>
       </c>
       <c r="E29">
-        <v>20.12382407093856</v>
+        <v>38.68112291479809</v>
       </c>
       <c r="F29">
-        <v>50.23465291153288</v>
+        <v>96.55882385989253</v>
       </c>
       <c r="G29">
-        <v>88.46615013581381</v>
+        <v>170.0457137341091</v>
       </c>
       <c r="H29">
-        <v>4.808203999837795</v>
+        <v>9.242116670346897</v>
       </c>
       <c r="I29">
-        <v>367.6547397211686</v>
+        <v>706.6896494041627</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>167.6206666989142</v>
+        <v>322.1930180260568</v>
       </c>
       <c r="C30">
-        <v>8.080165564913965</v>
+        <v>15.53133620561307</v>
       </c>
       <c r="D30">
-        <v>55.12471780965836</v>
+        <v>105.9582899215589</v>
       </c>
       <c r="E30">
-        <v>20.12382407093856</v>
+        <v>38.68112291479809</v>
       </c>
       <c r="F30">
-        <v>39.82015169816631</v>
+        <v>76.5405311084514</v>
       </c>
       <c r="G30">
-        <v>103.2105084917828</v>
+        <v>198.3866660231273</v>
       </c>
       <c r="H30">
-        <v>1.202050999959449</v>
+        <v>2.310529167586724</v>
       </c>
       <c r="I30">
-        <v>395.1820853343336</v>
+        <v>759.6014933671923</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>156.9007403402628</v>
+        <v>301.5876505941578</v>
       </c>
       <c r="C31">
-        <v>6.060124173685475</v>
+        <v>11.6485021542098</v>
       </c>
       <c r="D31">
-        <v>55.12471780965836</v>
+        <v>105.9582899215589</v>
       </c>
       <c r="E31">
-        <v>17.88784361861205</v>
+        <v>34.3832203687094</v>
       </c>
       <c r="F31">
-        <v>60.03653640646614</v>
+        <v>115.399569978896</v>
       </c>
       <c r="G31">
-        <v>98.29572237312647</v>
+        <v>188.939681926788</v>
       </c>
       <c r="H31">
-        <v>6.010254999797243</v>
+        <v>11.55264583793362</v>
       </c>
       <c r="I31">
-        <v>400.3159397216086</v>
+        <v>769.4695607822534</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>177.6096889876578</v>
+        <v>341.3934740421445</v>
       </c>
       <c r="C32">
-        <v>8.753512695323463</v>
+        <v>16.82561422274749</v>
       </c>
       <c r="D32">
-        <v>41.89478553534035</v>
+        <v>80.52830034038475</v>
       </c>
       <c r="E32">
-        <v>17.88784361861205</v>
+        <v>34.3832203687094</v>
       </c>
       <c r="F32">
-        <v>42.27062257189962</v>
+        <v>81.25071763820227</v>
       </c>
       <c r="G32">
-        <v>103.2105084917828</v>
+        <v>198.3866660231273</v>
       </c>
       <c r="H32">
-        <v>3.606152999878346</v>
+        <v>6.931587502760173</v>
       </c>
       <c r="I32">
-        <v>395.2331149004945</v>
+        <v>759.699580138076</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>192.7150397657575</v>
+        <v>370.4283099689113</v>
       </c>
       <c r="C33">
-        <v>5.386777043275977</v>
+        <v>10.35422413707538</v>
       </c>
       <c r="D33">
-        <v>77.17460493352169</v>
+        <v>148.3416058901824</v>
       </c>
       <c r="E33">
-        <v>42.48362859420362</v>
+        <v>81.66014837568481</v>
       </c>
       <c r="F33">
-        <v>51.45988834839953</v>
+        <v>98.91391712476798</v>
       </c>
       <c r="G33">
-        <v>61.43482648320401</v>
+        <v>118.0873012042425</v>
       </c>
       <c r="H33">
-        <v>6.010254999797243</v>
+        <v>11.55264583793362</v>
       </c>
       <c r="I33">
-        <v>436.6650201681596</v>
+        <v>839.3381525387979</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>230.4784167110073</v>
+        <v>443.0153997858282</v>
       </c>
       <c r="C34">
-        <v>7.406818434504466</v>
+        <v>14.23705818847865</v>
       </c>
       <c r="D34">
-        <v>70.55963879636269</v>
+        <v>135.6266110995954</v>
       </c>
       <c r="E34">
-        <v>49.19156995118315</v>
+        <v>94.55385601395083</v>
       </c>
       <c r="F34">
-        <v>34.91920995069968</v>
+        <v>67.12015804894969</v>
       </c>
       <c r="G34">
-        <v>39.31828894925057</v>
+        <v>75.57587277071518</v>
       </c>
       <c r="H34">
-        <v>1.202050999959449</v>
+        <v>2.310529167586724</v>
       </c>
       <c r="I34">
-        <v>433.0759937929673</v>
+        <v>832.4394850751047</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>242.6601512094748</v>
+        <v>466.4305900493496</v>
       </c>
       <c r="C35">
-        <v>4.713429912866479</v>
+        <v>9.059946119940959</v>
       </c>
       <c r="D35">
-        <v>50.71474038488569</v>
+        <v>97.48162672783418</v>
       </c>
       <c r="E35">
-        <v>60.3714722128157</v>
+        <v>116.0433687443942</v>
       </c>
       <c r="F35">
-        <v>18.37853155299983</v>
+        <v>35.32639897313142</v>
       </c>
       <c r="G35">
-        <v>54.06264730521955</v>
+        <v>103.9168250597334</v>
       </c>
       <c r="I35">
-        <v>430.9009725782621</v>
+        <v>828.2587556743838</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>226.5802616714975</v>
+        <v>435.5225389015014</v>
       </c>
       <c r="C36">
-        <v>3.366735652047486</v>
+        <v>6.471390085672115</v>
       </c>
       <c r="D36">
-        <v>52.91972909727203</v>
+        <v>101.7199583246965</v>
       </c>
       <c r="E36">
-        <v>44.71960904653014</v>
+        <v>85.95805092177349</v>
       </c>
       <c r="F36">
-        <v>25.72994417419977</v>
+        <v>49.45695856238399</v>
       </c>
       <c r="G36">
-        <v>81.09397095782931</v>
+        <v>155.8752375896001</v>
       </c>
       <c r="I36">
-        <v>434.4102505993762</v>
+        <v>835.0041343856276</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>140.3335814223468</v>
+        <v>269.7429918357685</v>
       </c>
       <c r="C37">
-        <v>7.406818434504466</v>
+        <v>14.23705818847865</v>
       </c>
       <c r="D37">
-        <v>48.50975167249935</v>
+        <v>93.24329513097182</v>
       </c>
       <c r="E37">
-        <v>53.66353085583616</v>
+        <v>103.1496611061282</v>
       </c>
       <c r="F37">
-        <v>12.25235436866656</v>
+        <v>23.55093264875428</v>
       </c>
       <c r="G37">
-        <v>83.55136401715748</v>
+        <v>160.5987296377698</v>
       </c>
       <c r="I37">
-        <v>345.7174007710109</v>
+        <v>664.5226685478713</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>120.3555368448599</v>
+        <v>231.342079803593</v>
       </c>
       <c r="C38">
-        <v>6.060124173685475</v>
+        <v>11.6485021542098</v>
       </c>
       <c r="D38">
-        <v>39.68979682295402</v>
+        <v>76.28996874352241</v>
       </c>
       <c r="E38">
-        <v>22.35980452326507</v>
+        <v>42.97902546088675</v>
       </c>
       <c r="F38">
-        <v>16.54067839769985</v>
+        <v>31.79375907581828</v>
       </c>
       <c r="G38">
-        <v>81.09397095782931</v>
+        <v>155.8752375896001</v>
       </c>
       <c r="I38">
-        <v>286.0999117202937</v>
+        <v>549.9285728276304</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>83.5666986594878</v>
+        <v>160.628205207758</v>
       </c>
       <c r="C39">
-        <v>9.426859825732958</v>
+        <v>18.11989223988192</v>
       </c>
       <c r="D39">
-        <v>24.25487583624967</v>
+        <v>46.62164756548591</v>
       </c>
       <c r="E39">
-        <v>29.06774588024459</v>
+        <v>55.87273309915278</v>
       </c>
       <c r="F39">
-        <v>9.801883494933245</v>
+        <v>18.84074611900343</v>
       </c>
       <c r="G39">
-        <v>66.34961260186034</v>
+        <v>127.5342853005819</v>
       </c>
       <c r="H39">
-        <v>1.202050999959449</v>
+        <v>2.310529167586724</v>
       </c>
       <c r="I39">
-        <v>223.669727298468</v>
+        <v>429.9280386994506</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>52.13782365344137</v>
+        <v>100.2170143278723</v>
       </c>
       <c r="C40">
-        <v>6.060124173685475</v>
+        <v>11.6485021542098</v>
       </c>
       <c r="D40">
-        <v>8.819954849545336</v>
+        <v>16.95332638744942</v>
       </c>
       <c r="E40">
-        <v>15.65186316628555</v>
+        <v>30.08531782262072</v>
       </c>
       <c r="F40">
-        <v>9.189265776499916</v>
+        <v>17.66319948656571</v>
       </c>
       <c r="G40">
-        <v>31.94610977126609</v>
+        <v>61.4053966262061</v>
       </c>
       <c r="I40">
-        <v>123.8051413907237</v>
+        <v>237.972756804924</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>28.01798934647549</v>
+        <v>53.8549376060996</v>
       </c>
       <c r="C41">
-        <v>9.426859825732958</v>
+        <v>18.11989223988192</v>
       </c>
       <c r="D41">
-        <v>8.819954849545336</v>
+        <v>16.95332638744942</v>
       </c>
       <c r="E41">
-        <v>11.17990226163253</v>
+        <v>21.48951273044337</v>
       </c>
       <c r="F41">
-        <v>9.801883494933245</v>
+        <v>18.84074611900343</v>
       </c>
       <c r="G41">
-        <v>36.86089588992242</v>
+        <v>70.85238072254549</v>
       </c>
       <c r="I41">
-        <v>104.107485668242</v>
+        <v>200.1107958054232</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>16.32352422794659</v>
+        <v>31.37635495311889</v>
       </c>
       <c r="C42">
-        <v>5.386777043275977</v>
+        <v>10.35422413707538</v>
       </c>
       <c r="D42">
-        <v>6.614966137159003</v>
+        <v>12.71499479058706</v>
       </c>
       <c r="E42">
-        <v>8.943921809306024</v>
+        <v>17.1916101843547</v>
       </c>
       <c r="F42">
-        <v>9.189265776499916</v>
+        <v>17.66319948656571</v>
       </c>
       <c r="G42">
-        <v>24.57393059328162</v>
+        <v>47.23492048169699</v>
       </c>
       <c r="I42">
-        <v>71.03238558746912</v>
+        <v>136.5353040333987</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>12.42536918843697</v>
+        <v>23.88349406879201</v>
       </c>
       <c r="C43">
-        <v>4.040082782456983</v>
+        <v>7.765668102806535</v>
       </c>
       <c r="D43">
-        <v>4.409977424772668</v>
+        <v>8.476663193724709</v>
       </c>
       <c r="F43">
-        <v>6.126177184333279</v>
+        <v>11.77546632437714</v>
       </c>
       <c r="G43">
-        <v>44.2330750679069</v>
+        <v>85.02285686705457</v>
       </c>
       <c r="I43">
-        <v>71.2346816479068</v>
+        <v>136.924148556755</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>9.501752908804729</v>
+        <v>18.26384840554682</v>
       </c>
       <c r="C44">
-        <v>2.020041391228491</v>
+        <v>3.882834051403267</v>
       </c>
       <c r="D44">
-        <v>4.409977424772668</v>
+        <v>8.476663193724709</v>
       </c>
       <c r="E44">
-        <v>2.235980452326506</v>
+        <v>4.297902546088675</v>
       </c>
       <c r="F44">
-        <v>9.801883494933245</v>
+        <v>18.84074611900343</v>
       </c>
       <c r="G44">
-        <v>56.5200403645477</v>
+        <v>108.6403171079031</v>
       </c>
       <c r="I44">
-        <v>84.48967603661333</v>
+        <v>162.40231142367</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>28.74889341638356</v>
+        <v>55.25984902191088</v>
       </c>
       <c r="C45">
-        <v>3.366735652047486</v>
+        <v>6.471390085672115</v>
       </c>
       <c r="D45">
-        <v>17.63990969909067</v>
+        <v>33.90665277489884</v>
       </c>
       <c r="E45">
-        <v>11.17990226163253</v>
+        <v>21.48951273044337</v>
       </c>
       <c r="F45">
-        <v>11.63973665023323</v>
+        <v>22.37338601631657</v>
       </c>
       <c r="G45">
-        <v>93.38093625447011</v>
+        <v>179.4926978304485</v>
       </c>
       <c r="I45">
-        <v>165.9561139338576</v>
+        <v>318.9934884596903</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>50.91965020359458</v>
+        <v>97.87549530152015</v>
       </c>
       <c r="D46">
-        <v>44.09977424772669</v>
+        <v>84.76663193724713</v>
       </c>
       <c r="E46">
-        <v>26.83176542791808</v>
+        <v>51.57483055306409</v>
       </c>
       <c r="F46">
-        <v>20.21638470829982</v>
+        <v>38.85903887044456</v>
       </c>
       <c r="G46">
-        <v>203.9636239242373</v>
+        <v>392.0498399980849</v>
       </c>
       <c r="H46">
-        <v>3.606152999878346</v>
+        <v>6.931587502760173</v>
       </c>
       <c r="I46">
-        <v>349.6373515116549</v>
+        <v>672.057424163121</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>150.3226037110902</v>
+        <v>288.9434478518561</v>
       </c>
       <c r="C47">
-        <v>5.386777043275977</v>
+        <v>10.35422413707538</v>
       </c>
       <c r="D47">
-        <v>50.71474038488569</v>
+        <v>97.48162672783418</v>
       </c>
       <c r="E47">
-        <v>76.02333537910123</v>
+        <v>146.1286865670149</v>
       </c>
       <c r="F47">
-        <v>43.49585800876628</v>
+        <v>83.6058109030777</v>
       </c>
       <c r="G47">
-        <v>208.8784100428936</v>
+        <v>401.4968240944245</v>
       </c>
       <c r="H47">
-        <v>2.404101999918897</v>
+        <v>4.621058335173449</v>
       </c>
       <c r="I47">
-        <v>537.2258265699319</v>
+        <v>1032.631678616456</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>179.5587665074125</v>
+        <v>345.1399044843077</v>
       </c>
       <c r="C48">
-        <v>10.10020695614246</v>
+        <v>19.41417025701634</v>
       </c>
       <c r="D48">
-        <v>33.07483068579501</v>
+        <v>63.57497395293534</v>
       </c>
       <c r="E48">
-        <v>49.19156995118315</v>
+        <v>94.55385601395083</v>
       </c>
       <c r="F48">
-        <v>39.82015169816631</v>
+        <v>76.5405311084514</v>
       </c>
       <c r="G48">
-        <v>154.8157627376741</v>
+        <v>297.5799990346911</v>
       </c>
       <c r="H48">
-        <v>6.010254999797243</v>
+        <v>11.55264583793362</v>
       </c>
       <c r="I48">
-        <v>472.5715435361709</v>
+        <v>908.3560806892863</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>228.2857045012829</v>
+        <v>438.8006655383941</v>
       </c>
       <c r="C49">
-        <v>2.693388521637988</v>
+        <v>5.17711206853769</v>
       </c>
       <c r="D49">
-        <v>61.73968394681738</v>
+        <v>118.6732847121459</v>
       </c>
       <c r="E49">
-        <v>44.71960904653014</v>
+        <v>85.95805092177349</v>
       </c>
       <c r="F49">
-        <v>36.14444538756634</v>
+        <v>69.47525131382513</v>
       </c>
       <c r="G49">
-        <v>140.0714043817052</v>
+        <v>269.2390467456729</v>
       </c>
       <c r="H49">
-        <v>1.202050999959449</v>
+        <v>2.310529167586724</v>
       </c>
       <c r="I49">
-        <v>514.8562867854994</v>
+        <v>989.633940467936</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_재비산_TSP.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>114.4236886447678</v>
+        <v>66.70280144253132</v>
       </c>
       <c r="C2">
-        <v>6.241565017208993</v>
+        <v>3.638493715458265</v>
       </c>
       <c r="D2">
-        <v>37.47160458534383</v>
+        <v>21.84391213037097</v>
       </c>
       <c r="E2">
-        <v>27.63511169821502</v>
+        <v>16.10977054035481</v>
       </c>
       <c r="F2">
-        <v>30.28605918194943</v>
+        <v>17.6551290735085</v>
       </c>
       <c r="G2">
-        <v>111.9953208056685</v>
+        <v>65.28719476423466</v>
       </c>
       <c r="H2">
-        <v>7.428243305138628</v>
+        <v>4.330262763925774</v>
       </c>
       <c r="I2">
-        <v>335.4815932382922</v>
+        <v>195.5675644303844</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>82.61841992607415</v>
+        <v>48.16205564682772</v>
       </c>
       <c r="C3">
-        <v>4.681173762906743</v>
+        <v>2.728870286593699</v>
       </c>
       <c r="D3">
-        <v>34.06509507758528</v>
+        <v>19.85810193670088</v>
       </c>
       <c r="E3">
-        <v>8.635972405692197</v>
+        <v>5.034303293860876</v>
       </c>
       <c r="F3">
-        <v>36.43791495328291</v>
+        <v>21.24132716656492</v>
       </c>
       <c r="G3">
-        <v>93.01306304199589</v>
+        <v>54.22156853300844</v>
       </c>
       <c r="H3">
-        <v>6.499712891996301</v>
+        <v>3.788979918435052</v>
       </c>
       <c r="I3">
-        <v>265.9513520595335</v>
+        <v>155.0352067819915</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>97.86236528828833</v>
+        <v>57.04844860216497</v>
       </c>
       <c r="C4">
-        <v>3.120782508604496</v>
+        <v>1.819246857729133</v>
       </c>
       <c r="D4">
-        <v>42.5813688469816</v>
+        <v>24.8226274208761</v>
       </c>
       <c r="E4">
-        <v>15.54475033024596</v>
+        <v>9.061745928949581</v>
       </c>
       <c r="F4">
-        <v>34.54503625441107</v>
+        <v>20.13788159947064</v>
       </c>
       <c r="G4">
-        <v>91.11483726562858</v>
+        <v>53.11500590988582</v>
       </c>
       <c r="H4">
-        <v>0.9285304131423285</v>
+        <v>0.5412828454907218</v>
       </c>
       <c r="I4">
-        <v>285.6976709073023</v>
+        <v>166.546239164567</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>123.0807440356549</v>
+        <v>71.74939497272287</v>
       </c>
       <c r="C5">
-        <v>4.161043344805995</v>
+        <v>2.425662476972176</v>
       </c>
       <c r="D5">
-        <v>39.17485933922308</v>
+        <v>22.83681722720601</v>
       </c>
       <c r="E5">
-        <v>15.54475033024596</v>
+        <v>9.061745928949581</v>
       </c>
       <c r="F5">
-        <v>33.12537723025719</v>
+        <v>19.31029742414993</v>
       </c>
       <c r="G5">
-        <v>85.42015993652679</v>
+        <v>49.79531804051796</v>
       </c>
       <c r="H5">
-        <v>0.9285304131423285</v>
+        <v>0.5412828454907218</v>
       </c>
       <c r="I5">
-        <v>301.4354646298562</v>
+        <v>175.7205189160092</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>125.5273031678621</v>
+        <v>73.17560618777696</v>
       </c>
       <c r="C6">
-        <v>7.281825853410492</v>
+        <v>4.244909334701311</v>
       </c>
       <c r="D6">
-        <v>40.87811409310234</v>
+        <v>23.82972232404106</v>
       </c>
       <c r="E6">
-        <v>17.27194481138439</v>
+        <v>10.06860658772175</v>
       </c>
       <c r="F6">
-        <v>43.53621007405231</v>
+        <v>25.37924804316847</v>
       </c>
       <c r="G6">
-        <v>94.91128881836312</v>
+        <v>55.32813115613105</v>
       </c>
       <c r="H6">
-        <v>3.714121652569314</v>
+        <v>2.165131381962887</v>
       </c>
       <c r="I6">
-        <v>333.1208084707441</v>
+        <v>194.1913550155035</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>112.1653263688843</v>
+        <v>65.38629878248138</v>
       </c>
       <c r="C7">
-        <v>4.161043344805995</v>
+        <v>2.425662476972176</v>
       </c>
       <c r="D7">
-        <v>51.09764261637793</v>
+        <v>29.78715290505132</v>
       </c>
       <c r="E7">
-        <v>18.99913929252283</v>
+        <v>11.07546724649393</v>
       </c>
       <c r="F7">
-        <v>47.79518714651393</v>
+        <v>27.8620005691306</v>
       </c>
       <c r="G7">
-        <v>85.42015993652679</v>
+        <v>49.79531804051796</v>
       </c>
       <c r="H7">
-        <v>14.85648661027726</v>
+        <v>8.660525527851549</v>
       </c>
       <c r="I7">
-        <v>334.494985315909</v>
+        <v>194.9924255484989</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>123.6453346046258</v>
+        <v>72.07852063773531</v>
       </c>
       <c r="C8">
-        <v>4.681173762906743</v>
+        <v>2.728870286593699</v>
       </c>
       <c r="D8">
-        <v>66.42693540129132</v>
+        <v>38.72329877656673</v>
       </c>
       <c r="E8">
-        <v>20.72633377366127</v>
+        <v>12.08232790526611</v>
       </c>
       <c r="F8">
-        <v>33.12537723025719</v>
+        <v>19.31029742414993</v>
       </c>
       <c r="G8">
-        <v>70.2343537255887</v>
+        <v>40.94281705553698</v>
       </c>
       <c r="H8">
-        <v>7.428243305138628</v>
+        <v>4.330262763925774</v>
       </c>
       <c r="I8">
-        <v>326.2677518034697</v>
+        <v>190.1963948497745</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>135.6899334093382</v>
+        <v>79.09986815800183</v>
       </c>
       <c r="C9">
-        <v>3.120782508604496</v>
+        <v>1.819246857729133</v>
       </c>
       <c r="D9">
-        <v>61.31717113965351</v>
+        <v>35.74458348606159</v>
       </c>
       <c r="E9">
-        <v>36.27108410390723</v>
+        <v>21.14407383421569</v>
       </c>
       <c r="F9">
-        <v>38.8040133268727</v>
+        <v>22.62063412543277</v>
       </c>
       <c r="G9">
-        <v>55.04854751465059</v>
+        <v>32.09031607055602</v>
       </c>
       <c r="H9">
-        <v>4.642652065711642</v>
+        <v>2.706414227453608</v>
       </c>
       <c r="I9">
-        <v>334.8941840687383</v>
+        <v>195.2251367594506</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>193.2781714443694</v>
+        <v>112.6706859892758</v>
       </c>
       <c r="C10">
-        <v>4.681173762906743</v>
+        <v>2.728870286593699</v>
       </c>
       <c r="D10">
-        <v>51.09764261637793</v>
+        <v>29.78715290505132</v>
       </c>
       <c r="E10">
-        <v>31.08950066049192</v>
+        <v>18.12349185789916</v>
       </c>
       <c r="F10">
-        <v>32.65215755553923</v>
+        <v>19.03443603237636</v>
       </c>
       <c r="G10">
-        <v>43.65919285644703</v>
+        <v>25.45094033182029</v>
       </c>
       <c r="H10">
-        <v>3.714121652569314</v>
+        <v>2.165131381962887</v>
       </c>
       <c r="I10">
-        <v>360.1719605487016</v>
+        <v>209.9607087849795</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>192.7135808753985</v>
+        <v>112.3415603242633</v>
       </c>
       <c r="C11">
-        <v>4.161043344805995</v>
+        <v>2.425662476972176</v>
       </c>
       <c r="D11">
-        <v>42.5813688469816</v>
+        <v>24.8226274208761</v>
       </c>
       <c r="E11">
-        <v>46.63425099073786</v>
+        <v>27.18523778684873</v>
       </c>
       <c r="F11">
-        <v>18.92878698871839</v>
+        <v>11.03445567094281</v>
       </c>
       <c r="G11">
-        <v>45.55741863281429</v>
+        <v>26.55750295494291</v>
       </c>
       <c r="I11">
-        <v>350.5764496794566</v>
+        <v>204.367046634846</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>149.8046976336106</v>
+        <v>87.32800978331404</v>
       </c>
       <c r="C12">
-        <v>7.801956271511239</v>
+        <v>4.548117144322831</v>
       </c>
       <c r="D12">
-        <v>30.65858556982676</v>
+        <v>17.8722917430308</v>
       </c>
       <c r="E12">
-        <v>39.72547306618411</v>
+        <v>23.15779515176004</v>
       </c>
       <c r="F12">
-        <v>22.24132471174411</v>
+        <v>12.96548541335781</v>
       </c>
       <c r="G12">
-        <v>43.65919285644703</v>
+        <v>25.45094033182029</v>
       </c>
       <c r="I12">
-        <v>293.8912301093238</v>
+        <v>171.3226395676058</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>120.0695943344767</v>
+        <v>69.99405809265623</v>
       </c>
       <c r="C13">
-        <v>5.721434599108244</v>
+        <v>3.335285905836743</v>
       </c>
       <c r="D13">
-        <v>37.47160458534383</v>
+        <v>21.84391213037097</v>
       </c>
       <c r="E13">
-        <v>27.63511169821502</v>
+        <v>16.10977054035481</v>
       </c>
       <c r="F13">
-        <v>13.25015089210287</v>
+        <v>7.724118969659971</v>
       </c>
       <c r="G13">
-        <v>77.82725683105777</v>
+        <v>45.36906754802747</v>
       </c>
       <c r="H13">
-        <v>0.9285304131423285</v>
+        <v>0.5412828454907218</v>
       </c>
       <c r="I13">
-        <v>282.9036833534468</v>
+        <v>164.9174960323969</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>89.76990046637218</v>
+        <v>52.33098073698594</v>
       </c>
       <c r="C14">
-        <v>4.161043344805995</v>
+        <v>2.425662476972176</v>
       </c>
       <c r="D14">
-        <v>20.43905704655117</v>
+        <v>11.91486116202053</v>
       </c>
       <c r="E14">
-        <v>15.54475033024596</v>
+        <v>9.061745928949581</v>
       </c>
       <c r="F14">
-        <v>9.937613169077155</v>
+        <v>5.793089227244978</v>
       </c>
       <c r="G14">
-        <v>79.72548260742501</v>
+        <v>46.47563017115009</v>
       </c>
       <c r="I14">
-        <v>219.5778469644775</v>
+        <v>128.0019697033233</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>59.09381288562023</v>
+        <v>34.44848627130731</v>
       </c>
       <c r="C15">
-        <v>5.721434599108244</v>
+        <v>3.335285905836743</v>
       </c>
       <c r="D15">
-        <v>20.43905704655117</v>
+        <v>11.91486116202053</v>
       </c>
       <c r="E15">
-        <v>15.54475033024596</v>
+        <v>9.061745928949581</v>
       </c>
       <c r="F15">
-        <v>11.83049186794899</v>
+        <v>6.896534794339262</v>
       </c>
       <c r="G15">
-        <v>49.35387018554881</v>
+        <v>28.77062820118815</v>
       </c>
       <c r="I15">
-        <v>161.9834169150234</v>
+        <v>94.42754226364157</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>29.54690644281012</v>
+        <v>17.22424313565365</v>
       </c>
       <c r="C16">
-        <v>4.681173762906743</v>
+        <v>2.728870286593699</v>
       </c>
       <c r="D16">
-        <v>11.92278327715485</v>
+        <v>6.95033567784531</v>
       </c>
       <c r="E16">
-        <v>12.09036136796908</v>
+        <v>7.04802461140523</v>
       </c>
       <c r="F16">
-        <v>5.205416421897559</v>
+        <v>3.034475309509275</v>
       </c>
       <c r="G16">
-        <v>37.96451552734526</v>
+        <v>22.13125246245242</v>
       </c>
       <c r="I16">
-        <v>101.4111568000836</v>
+        <v>59.1172014834596</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>21.45444162089397</v>
+        <v>12.50677527047463</v>
       </c>
       <c r="C17">
-        <v>4.161043344805995</v>
+        <v>2.425662476972176</v>
       </c>
       <c r="D17">
-        <v>1.703254753879265</v>
+        <v>0.9929050968350439</v>
       </c>
       <c r="E17">
-        <v>8.635972405692197</v>
+        <v>5.034303293860876</v>
       </c>
       <c r="F17">
-        <v>5.678636096615517</v>
+        <v>3.310336701282845</v>
       </c>
       <c r="G17">
-        <v>24.6769350927744</v>
+        <v>14.38531410059407</v>
       </c>
       <c r="I17">
-        <v>66.31028331466135</v>
+        <v>38.65529694001964</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>12.6091893736833</v>
+        <v>7.350473185278951</v>
       </c>
       <c r="C18">
-        <v>7.281825853410492</v>
+        <v>4.244909334701311</v>
       </c>
       <c r="D18">
-        <v>6.813019015517058</v>
+        <v>3.971620387340176</v>
       </c>
       <c r="E18">
-        <v>5.181583443415318</v>
+        <v>3.020581976316527</v>
       </c>
       <c r="F18">
-        <v>4.732196747179598</v>
+        <v>2.758613917735703</v>
       </c>
       <c r="G18">
-        <v>24.6769350927744</v>
+        <v>14.38531410059407</v>
       </c>
       <c r="I18">
-        <v>61.29474952598017</v>
+        <v>35.73151290196674</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>9.974433385152464</v>
+        <v>5.814553415220659</v>
       </c>
       <c r="C19">
-        <v>3.120782508604496</v>
+        <v>1.819246857729133</v>
       </c>
       <c r="D19">
-        <v>1.703254753879265</v>
+        <v>0.9929050968350439</v>
       </c>
       <c r="F19">
-        <v>4.732196747179598</v>
+        <v>2.758613917735703</v>
       </c>
       <c r="G19">
-        <v>26.57516086914167</v>
+        <v>15.49187672371669</v>
       </c>
       <c r="I19">
-        <v>46.10582826395749</v>
+        <v>26.87719601123723</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>8.845252247210672</v>
+        <v>5.156302085195676</v>
       </c>
       <c r="C20">
-        <v>1.560391254302248</v>
+        <v>0.9096234288645663</v>
       </c>
       <c r="D20">
-        <v>6.813019015517058</v>
+        <v>3.971620387340176</v>
       </c>
       <c r="E20">
-        <v>1.727194481138439</v>
+        <v>1.006860658772176</v>
       </c>
       <c r="F20">
-        <v>8.044734470205318</v>
+        <v>4.689643660150697</v>
       </c>
       <c r="G20">
-        <v>36.06628975097798</v>
+        <v>21.0246898393298</v>
       </c>
       <c r="I20">
-        <v>63.05688121935172</v>
+        <v>36.75874005965309</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>18.25509506339224</v>
+        <v>10.64172983540385</v>
       </c>
       <c r="C21">
-        <v>1.560391254302248</v>
+        <v>0.9096234288645663</v>
       </c>
       <c r="D21">
-        <v>10.21952852327559</v>
+        <v>5.957430581010264</v>
       </c>
       <c r="E21">
-        <v>5.181583443415318</v>
+        <v>3.020581976316527</v>
       </c>
       <c r="F21">
-        <v>7.571514795487357</v>
+        <v>4.413782268377125</v>
       </c>
       <c r="G21">
-        <v>81.62370838379228</v>
+        <v>47.5821927942727</v>
       </c>
       <c r="I21">
-        <v>124.411821463665</v>
+        <v>72.52534088424503</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>47.990198362526</v>
+        <v>27.97568152606165</v>
       </c>
       <c r="C22">
-        <v>1.560391254302248</v>
+        <v>0.9096234288645663</v>
       </c>
       <c r="D22">
-        <v>34.06509507758528</v>
+        <v>19.85810193670088</v>
       </c>
       <c r="E22">
-        <v>15.54475033024596</v>
+        <v>9.061745928949581</v>
       </c>
       <c r="F22">
-        <v>12.30371154266695</v>
+        <v>7.172396186112829</v>
       </c>
       <c r="G22">
-        <v>153.7562878857482</v>
+        <v>89.63157247293233</v>
       </c>
       <c r="I22">
-        <v>265.2204344530747</v>
+        <v>154.6091214796218</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>110.2833578056479</v>
+        <v>64.28921323243974</v>
       </c>
       <c r="C23">
-        <v>3.120782508604496</v>
+        <v>1.819246857729133</v>
       </c>
       <c r="D23">
-        <v>28.95533081594749</v>
+        <v>16.87938664619575</v>
       </c>
       <c r="E23">
-        <v>58.72461235870693</v>
+        <v>34.23326239825398</v>
       </c>
       <c r="F23">
-        <v>33.12537723025719</v>
+        <v>19.31029742414993</v>
       </c>
       <c r="G23">
-        <v>140.4687074511774</v>
+        <v>81.88563411107397</v>
       </c>
       <c r="H23">
-        <v>3.714121652569314</v>
+        <v>2.165131381962887</v>
       </c>
       <c r="I23">
-        <v>378.3922898229108</v>
+        <v>220.5821720518054</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>142.6532170933125</v>
+        <v>83.15908469315576</v>
       </c>
       <c r="C24">
-        <v>3.640912926705246</v>
+        <v>2.122454667350655</v>
       </c>
       <c r="D24">
-        <v>28.95533081594749</v>
+        <v>16.87938664619575</v>
       </c>
       <c r="E24">
-        <v>36.27108410390723</v>
+        <v>21.14407383421569</v>
       </c>
       <c r="F24">
-        <v>29.81283950723147</v>
+        <v>17.37926768173493</v>
       </c>
       <c r="G24">
-        <v>113.8935465820358</v>
+        <v>66.39375738735727</v>
       </c>
       <c r="H24">
-        <v>3.714121652569314</v>
+        <v>2.165131381962887</v>
       </c>
       <c r="I24">
-        <v>358.941052681709</v>
+        <v>209.243156291973</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>167.6833989843555</v>
+        <v>97.75032250870966</v>
       </c>
       <c r="C25">
-        <v>2.600652090503747</v>
+        <v>1.51603904810761</v>
       </c>
       <c r="D25">
-        <v>49.39438786249868</v>
+        <v>28.79424780821627</v>
       </c>
       <c r="E25">
-        <v>32.81669514163035</v>
+        <v>19.13035251667133</v>
       </c>
       <c r="F25">
-        <v>25.08064276005187</v>
+        <v>14.62065376399923</v>
       </c>
       <c r="G25">
-        <v>91.11483726562858</v>
+        <v>53.11500590988582</v>
       </c>
       <c r="H25">
-        <v>5.571182478853972</v>
+        <v>3.247697072944331</v>
       </c>
       <c r="I25">
-        <v>374.2617965835227</v>
+        <v>218.1743186285343</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>136.6309176909564</v>
+        <v>79.64841093302259</v>
       </c>
       <c r="C26">
-        <v>8.322086689611989</v>
+        <v>4.851324953944353</v>
       </c>
       <c r="D26">
-        <v>44.28462360086085</v>
+        <v>25.81553251771114</v>
       </c>
       <c r="E26">
-        <v>32.81669514163035</v>
+        <v>19.13035251667133</v>
       </c>
       <c r="F26">
-        <v>37.85757397743679</v>
+        <v>22.06891134188563</v>
       </c>
       <c r="G26">
-        <v>136.6722558984429</v>
+        <v>79.67250886482874</v>
       </c>
       <c r="H26">
-        <v>6.499712891996301</v>
+        <v>3.788979918435052</v>
       </c>
       <c r="I26">
-        <v>403.0838658909356</v>
+        <v>234.9760210464989</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>98.80334956990644</v>
+        <v>57.59699137718577</v>
       </c>
       <c r="C27">
-        <v>6.241565017208993</v>
+        <v>3.638493715458265</v>
       </c>
       <c r="D27">
-        <v>40.87811409310234</v>
+        <v>23.82972232404106</v>
       </c>
       <c r="E27">
-        <v>12.09036136796908</v>
+        <v>7.04802461140523</v>
       </c>
       <c r="F27">
-        <v>45.9023084476421</v>
+        <v>26.75855500203633</v>
       </c>
       <c r="G27">
-        <v>113.8935465820358</v>
+        <v>66.39375738735727</v>
       </c>
       <c r="H27">
-        <v>5.571182478853972</v>
+        <v>3.247697072944331</v>
       </c>
       <c r="I27">
-        <v>323.3804275567187</v>
+        <v>188.5132414904282</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>106.707617535499</v>
+        <v>62.20475068736065</v>
       </c>
       <c r="C28">
-        <v>3.640912926705246</v>
+        <v>2.122454667350655</v>
       </c>
       <c r="D28">
-        <v>45.98787835474013</v>
+        <v>26.80843761454619</v>
       </c>
       <c r="E28">
-        <v>17.27194481138439</v>
+        <v>10.06860658772175</v>
       </c>
       <c r="F28">
-        <v>37.85757397743679</v>
+        <v>22.06891134188563</v>
       </c>
       <c r="G28">
-        <v>98.70774037109761</v>
+        <v>57.54125640237629</v>
       </c>
       <c r="H28">
-        <v>0.9285304131423285</v>
+        <v>0.5412828454907218</v>
       </c>
       <c r="I28">
-        <v>311.1021983900055</v>
+        <v>181.3557001467319</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>117.8112320585933</v>
+        <v>68.67755543260627</v>
       </c>
       <c r="C29">
-        <v>5.721434599108244</v>
+        <v>3.335285905836743</v>
       </c>
       <c r="D29">
-        <v>34.06509507758528</v>
+        <v>19.85810193670088</v>
       </c>
       <c r="E29">
-        <v>15.54475033024596</v>
+        <v>9.061745928949581</v>
       </c>
       <c r="F29">
-        <v>38.8040133268727</v>
+        <v>22.62063412543277</v>
       </c>
       <c r="G29">
-        <v>68.33612794922145</v>
+        <v>39.83625443241437</v>
       </c>
       <c r="H29">
-        <v>3.714121652569314</v>
+        <v>2.165131381962887</v>
       </c>
       <c r="I29">
-        <v>283.9967749941962</v>
+        <v>165.5547091439035</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>129.4794371506583</v>
+        <v>75.47948584286438</v>
       </c>
       <c r="C30">
-        <v>6.241565017208993</v>
+        <v>3.638493715458265</v>
       </c>
       <c r="D30">
-        <v>42.5813688469816</v>
+        <v>24.8226274208761</v>
       </c>
       <c r="E30">
-        <v>15.54475033024596</v>
+        <v>9.061745928949581</v>
       </c>
       <c r="F30">
-        <v>30.75927885666738</v>
+        <v>17.93099046528208</v>
       </c>
       <c r="G30">
-        <v>79.72548260742501</v>
+        <v>46.47563017115009</v>
       </c>
       <c r="H30">
-        <v>0.9285304131423285</v>
+        <v>0.5412828454907218</v>
       </c>
       <c r="I30">
-        <v>305.2604132223295</v>
+        <v>177.9502563900712</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>121.1987754724185</v>
+        <v>70.65230942268121</v>
       </c>
       <c r="C31">
-        <v>4.681173762906743</v>
+        <v>2.728870286593699</v>
       </c>
       <c r="D31">
-        <v>42.5813688469816</v>
+        <v>24.8226274208761</v>
       </c>
       <c r="E31">
-        <v>13.81755584910751</v>
+        <v>8.054885270177405</v>
       </c>
       <c r="F31">
-        <v>46.37552812236007</v>
+        <v>27.0344163938099</v>
       </c>
       <c r="G31">
-        <v>75.92903105469051</v>
+        <v>44.26250492490485</v>
       </c>
       <c r="H31">
-        <v>4.642652065711642</v>
+        <v>2.706414227453608</v>
       </c>
       <c r="I31">
-        <v>309.2260851741766</v>
+        <v>180.2620279464968</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>137.1955082599272</v>
+        <v>79.97753659803509</v>
       </c>
       <c r="C32">
-        <v>6.76169543530974</v>
+        <v>3.941701525079786</v>
       </c>
       <c r="D32">
-        <v>32.36184032370603</v>
+        <v>18.86519683986584</v>
       </c>
       <c r="E32">
-        <v>13.81755584910751</v>
+        <v>8.054885270177405</v>
       </c>
       <c r="F32">
-        <v>32.65215755553923</v>
+        <v>19.03443603237636</v>
       </c>
       <c r="G32">
-        <v>79.72548260742501</v>
+        <v>46.47563017115009</v>
       </c>
       <c r="H32">
-        <v>2.785591239426986</v>
+        <v>1.623848536472165</v>
       </c>
       <c r="I32">
-        <v>305.2998312704418</v>
+        <v>177.9732349731567</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>148.8637133519923</v>
+        <v>86.77946700829321</v>
       </c>
       <c r="C33">
-        <v>4.161043344805995</v>
+        <v>2.425662476972176</v>
       </c>
       <c r="D33">
-        <v>59.61391638577427</v>
+        <v>34.75167838922653</v>
       </c>
       <c r="E33">
-        <v>32.81669514163035</v>
+        <v>19.13035251667133</v>
       </c>
       <c r="F33">
-        <v>39.75045267630862</v>
+        <v>23.17235690897991</v>
       </c>
       <c r="G33">
-        <v>47.45564440918156</v>
+        <v>27.66406557806553</v>
       </c>
       <c r="H33">
-        <v>4.642652065711642</v>
+        <v>2.706414227453608</v>
       </c>
       <c r="I33">
-        <v>337.3041173754048</v>
+        <v>196.6299971056623</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>178.0342260821553</v>
+        <v>103.7842930339385</v>
       </c>
       <c r="C34">
-        <v>5.721434599108244</v>
+        <v>3.335285905836743</v>
       </c>
       <c r="D34">
-        <v>54.50415212413647</v>
+        <v>31.77296309872141</v>
       </c>
       <c r="E34">
-        <v>37.99827858504567</v>
+        <v>22.15093449298786</v>
       </c>
       <c r="F34">
-        <v>26.97352145892371</v>
+        <v>15.72409933109351</v>
       </c>
       <c r="G34">
-        <v>30.37161242187619</v>
+        <v>17.70500196996194</v>
       </c>
       <c r="H34">
-        <v>0.9285304131423285</v>
+        <v>0.5412828454907218</v>
       </c>
       <c r="I34">
-        <v>334.5317556843879</v>
+        <v>195.0138606780307</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>187.4440688983368</v>
+        <v>109.2697207841468</v>
       </c>
       <c r="C35">
-        <v>3.640912926705246</v>
+        <v>2.122454667350655</v>
       </c>
       <c r="D35">
-        <v>39.17485933922308</v>
+        <v>22.83681722720601</v>
       </c>
       <c r="E35">
-        <v>46.63425099073786</v>
+        <v>27.18523778684873</v>
       </c>
       <c r="F35">
-        <v>14.19659024153879</v>
+        <v>8.275841753207112</v>
       </c>
       <c r="G35">
-        <v>41.76096708007977</v>
+        <v>24.34437770869766</v>
       </c>
       <c r="I35">
-        <v>332.8516494766215</v>
+        <v>194.034449927457</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>175.0230763809771</v>
+        <v>102.0289561538719</v>
       </c>
       <c r="C36">
-        <v>2.600652090503747</v>
+        <v>1.51603904810761</v>
       </c>
       <c r="D36">
-        <v>40.87811409310234</v>
+        <v>23.82972232404106</v>
       </c>
       <c r="E36">
-        <v>34.54388962276879</v>
+        <v>20.13721317544351</v>
       </c>
       <c r="F36">
-        <v>19.87522633815431</v>
+        <v>11.58617845448996</v>
       </c>
       <c r="G36">
-        <v>62.64145062011968</v>
+        <v>36.51656656304649</v>
       </c>
       <c r="I36">
-        <v>335.562409145626</v>
+        <v>195.6146757190005</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>108.4013892424117</v>
+        <v>63.19212768239813</v>
       </c>
       <c r="C37">
-        <v>5.721434599108244</v>
+        <v>3.335285905836743</v>
       </c>
       <c r="D37">
-        <v>37.47160458534383</v>
+        <v>21.84391213037097</v>
       </c>
       <c r="E37">
-        <v>41.45266754732254</v>
+        <v>24.16465581053221</v>
       </c>
       <c r="F37">
-        <v>9.464393494359197</v>
+        <v>5.517227835471407</v>
       </c>
       <c r="G37">
-        <v>64.53967639648691</v>
+        <v>37.62312918616911</v>
       </c>
       <c r="I37">
-        <v>267.0511658650324</v>
+        <v>155.6763385507786</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>92.96924702387385</v>
+        <v>54.19602617205672</v>
       </c>
       <c r="C38">
-        <v>4.681173762906743</v>
+        <v>2.728870286593699</v>
       </c>
       <c r="D38">
-        <v>30.65858556982676</v>
+        <v>17.8722917430308</v>
       </c>
       <c r="E38">
-        <v>17.27194481138439</v>
+        <v>10.06860658772175</v>
       </c>
       <c r="F38">
-        <v>12.77693121738491</v>
+        <v>7.448257577886398</v>
       </c>
       <c r="G38">
-        <v>62.64145062011968</v>
+        <v>36.51656656304649</v>
       </c>
       <c r="I38">
-        <v>220.9993330054963</v>
+        <v>128.8306189303358</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>64.55152171900559</v>
+        <v>37.63003436642802</v>
       </c>
       <c r="C39">
-        <v>7.281825853410492</v>
+        <v>4.244909334701311</v>
       </c>
       <c r="D39">
-        <v>18.73580229267192</v>
+        <v>10.92195606518549</v>
       </c>
       <c r="E39">
-        <v>22.45352825479972</v>
+        <v>13.08918856403828</v>
       </c>
       <c r="F39">
-        <v>7.571514795487357</v>
+        <v>4.413782268377125</v>
       </c>
       <c r="G39">
-        <v>51.25209596191605</v>
+        <v>29.87719082431076</v>
       </c>
       <c r="H39">
-        <v>0.9285304131423285</v>
+        <v>0.5412828454907218</v>
       </c>
       <c r="I39">
-        <v>172.7748192904335</v>
+        <v>100.7183442685317</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>40.27412725325711</v>
+        <v>23.47763077089097</v>
       </c>
       <c r="C40">
-        <v>4.681173762906743</v>
+        <v>2.728870286593699</v>
       </c>
       <c r="D40">
-        <v>6.813019015517058</v>
+        <v>3.971620387340176</v>
       </c>
       <c r="E40">
-        <v>12.09036136796908</v>
+        <v>7.04802461140523</v>
       </c>
       <c r="F40">
-        <v>7.098295120769397</v>
+        <v>4.137920876603556</v>
       </c>
       <c r="G40">
-        <v>24.6769350927744</v>
+        <v>14.38531410059407</v>
       </c>
       <c r="I40">
-        <v>95.63391161319379</v>
+        <v>55.7493810334277</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>21.6426384772176</v>
+        <v>12.61648382547879</v>
       </c>
       <c r="C41">
-        <v>7.281825853410492</v>
+        <v>4.244909334701311</v>
       </c>
       <c r="D41">
-        <v>6.813019015517058</v>
+        <v>3.971620387340176</v>
       </c>
       <c r="E41">
-        <v>8.635972405692197</v>
+        <v>5.034303293860876</v>
       </c>
       <c r="F41">
-        <v>7.571514795487357</v>
+        <v>4.413782268377125</v>
       </c>
       <c r="G41">
-        <v>28.47338664550894</v>
+        <v>16.59843934683932</v>
       </c>
       <c r="I41">
-        <v>80.41835719283365</v>
+        <v>46.87953845659759</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>12.6091893736833</v>
+        <v>7.350473185278951</v>
       </c>
       <c r="C42">
-        <v>4.161043344805995</v>
+        <v>2.425662476972176</v>
       </c>
       <c r="D42">
-        <v>5.109764261637793</v>
+        <v>2.978715290505132</v>
       </c>
       <c r="E42">
-        <v>6.908777924553756</v>
+        <v>4.027442635088702</v>
       </c>
       <c r="F42">
-        <v>7.098295120769397</v>
+        <v>4.137920876603556</v>
       </c>
       <c r="G42">
-        <v>18.98225776367263</v>
+        <v>11.06562623122621</v>
       </c>
       <c r="I42">
-        <v>54.86932778912287</v>
+        <v>31.98584069567473</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>9.598039672505193</v>
+        <v>5.595136305212333</v>
       </c>
       <c r="C43">
-        <v>3.120782508604496</v>
+        <v>1.819246857729133</v>
       </c>
       <c r="D43">
-        <v>3.406509507758529</v>
+        <v>1.985810193670088</v>
       </c>
       <c r="F43">
-        <v>4.732196747179598</v>
+        <v>2.758613917735703</v>
       </c>
       <c r="G43">
-        <v>34.16806397461072</v>
+        <v>19.91812721620719</v>
       </c>
       <c r="I43">
-        <v>55.02559241065854</v>
+        <v>32.07693449055444</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>7.339677396621621</v>
+        <v>4.278633645162373</v>
       </c>
       <c r="C44">
-        <v>1.560391254302248</v>
+        <v>0.9096234288645663</v>
       </c>
       <c r="D44">
-        <v>3.406509507758529</v>
+        <v>1.985810193670088</v>
       </c>
       <c r="E44">
-        <v>1.727194481138439</v>
+        <v>1.006860658772176</v>
       </c>
       <c r="F44">
-        <v>7.571514795487357</v>
+        <v>4.413782268377125</v>
       </c>
       <c r="G44">
-        <v>43.65919285644703</v>
+        <v>25.45094033182029</v>
       </c>
       <c r="I44">
-        <v>65.26448029175522</v>
+        <v>38.04565052666662</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>22.2072290461885</v>
+        <v>12.94560949049127</v>
       </c>
       <c r="C45">
-        <v>2.600652090503747</v>
+        <v>1.51603904810761</v>
       </c>
       <c r="D45">
-        <v>13.62603803103412</v>
+        <v>7.943240774680351</v>
       </c>
       <c r="E45">
-        <v>8.635972405692197</v>
+        <v>5.034303293860876</v>
       </c>
       <c r="F45">
-        <v>8.991173819641237</v>
+        <v>5.241366443697836</v>
       </c>
       <c r="G45">
-        <v>72.13257950195596</v>
+        <v>42.04937967865961</v>
       </c>
       <c r="I45">
-        <v>128.1936448950158</v>
+        <v>74.72993872949755</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>39.33314297163894</v>
+        <v>22.92908799587014</v>
       </c>
       <c r="D46">
-        <v>34.06509507758528</v>
+        <v>19.85810193670088</v>
       </c>
       <c r="E46">
-        <v>20.72633377366127</v>
+        <v>12.08232790526611</v>
       </c>
       <c r="F46">
-        <v>15.61624926569267</v>
+        <v>9.103425928527821</v>
       </c>
       <c r="G46">
-        <v>157.5527394384827</v>
+        <v>91.84469771917755</v>
       </c>
       <c r="H46">
-        <v>2.785591239426986</v>
+        <v>1.623848536472165</v>
       </c>
       <c r="I46">
-        <v>270.0791517664879</v>
+        <v>157.4414900220146</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>116.1174603516805</v>
+        <v>67.69017843756876</v>
       </c>
       <c r="C47">
-        <v>4.161043344805995</v>
+        <v>2.425662476972176</v>
       </c>
       <c r="D47">
-        <v>39.17485933922308</v>
+        <v>22.83681722720601</v>
       </c>
       <c r="E47">
-        <v>58.72461235870693</v>
+        <v>34.23326239825398</v>
       </c>
       <c r="F47">
-        <v>33.59859690497515</v>
+        <v>19.5861588159235</v>
       </c>
       <c r="G47">
-        <v>161.3491909912173</v>
+        <v>94.05782296542279</v>
       </c>
       <c r="H47">
-        <v>1.857060826284657</v>
+        <v>1.082565690981444</v>
       </c>
       <c r="I47">
-        <v>414.9828241168936</v>
+        <v>241.9124680123286</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>138.7010831105163</v>
+        <v>80.85520503806843</v>
       </c>
       <c r="C48">
-        <v>7.801956271511239</v>
+        <v>4.548117144322831</v>
       </c>
       <c r="D48">
-        <v>25.54882130818896</v>
+        <v>14.89357645252566</v>
       </c>
       <c r="E48">
-        <v>37.99827858504567</v>
+        <v>22.15093449298786</v>
       </c>
       <c r="F48">
-        <v>30.75927885666738</v>
+        <v>17.93099046528208</v>
       </c>
       <c r="G48">
-        <v>119.5882239111376</v>
+        <v>69.71344525672512</v>
       </c>
       <c r="H48">
-        <v>4.642652065711642</v>
+        <v>2.706414227453608</v>
       </c>
       <c r="I48">
-        <v>365.0402941087788</v>
+        <v>212.7986830773656</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>176.3404543752425</v>
+        <v>102.7969160389011</v>
       </c>
       <c r="C49">
-        <v>2.080521672402997</v>
+        <v>1.212831238486088</v>
       </c>
       <c r="D49">
-        <v>47.69113310861942</v>
+        <v>27.80134271138124</v>
       </c>
       <c r="E49">
-        <v>34.54388962276879</v>
+        <v>20.13721317544351</v>
       </c>
       <c r="F49">
-        <v>27.91996080835963</v>
+        <v>16.27582211464065</v>
       </c>
       <c r="G49">
-        <v>108.1988692529339</v>
+        <v>63.0740695179894</v>
       </c>
       <c r="H49">
-        <v>0.9285304131423285</v>
+        <v>0.5412828454907218</v>
       </c>
       <c r="I49">
-        <v>397.7033592534696</v>
+        <v>231.8394776423326</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_재비산_TSP.xlsx
+++ b/output/동부대로_S_여름_배출량/동부대로_S_여름_배출량_재비산_TSP.xlsx
@@ -438,28 +438,28 @@
         <v>2024081209</v>
       </c>
       <c r="B2">
-        <v>66.70280144253132</v>
+        <v>114.4236886447678</v>
       </c>
       <c r="C2">
-        <v>3.638493715458265</v>
+        <v>6.241565017208993</v>
       </c>
       <c r="D2">
-        <v>21.84391213037097</v>
+        <v>37.47160458534383</v>
       </c>
       <c r="E2">
-        <v>16.10977054035481</v>
+        <v>27.63511169821502</v>
       </c>
       <c r="F2">
-        <v>17.6551290735085</v>
+        <v>30.28605918194943</v>
       </c>
       <c r="G2">
-        <v>65.28719476423466</v>
+        <v>111.9953208056685</v>
       </c>
       <c r="H2">
-        <v>4.330262763925774</v>
+        <v>7.428243305138628</v>
       </c>
       <c r="I2">
-        <v>195.5675644303844</v>
+        <v>335.4815932382922</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024081210</v>
       </c>
       <c r="B3">
-        <v>48.16205564682772</v>
+        <v>82.61841992607415</v>
       </c>
       <c r="C3">
-        <v>2.728870286593699</v>
+        <v>4.681173762906743</v>
       </c>
       <c r="D3">
-        <v>19.85810193670088</v>
+        <v>34.06509507758528</v>
       </c>
       <c r="E3">
-        <v>5.034303293860876</v>
+        <v>8.635972405692197</v>
       </c>
       <c r="F3">
-        <v>21.24132716656492</v>
+        <v>36.43791495328291</v>
       </c>
       <c r="G3">
-        <v>54.22156853300844</v>
+        <v>93.01306304199589</v>
       </c>
       <c r="H3">
-        <v>3.788979918435052</v>
+        <v>6.499712891996301</v>
       </c>
       <c r="I3">
-        <v>155.0352067819915</v>
+        <v>265.9513520595335</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024081211</v>
       </c>
       <c r="B4">
-        <v>57.04844860216497</v>
+        <v>97.86236528828833</v>
       </c>
       <c r="C4">
-        <v>1.819246857729133</v>
+        <v>3.120782508604496</v>
       </c>
       <c r="D4">
-        <v>24.8226274208761</v>
+        <v>42.5813688469816</v>
       </c>
       <c r="E4">
-        <v>9.061745928949581</v>
+        <v>15.54475033024596</v>
       </c>
       <c r="F4">
-        <v>20.13788159947064</v>
+        <v>34.54503625441107</v>
       </c>
       <c r="G4">
-        <v>53.11500590988582</v>
+        <v>91.11483726562858</v>
       </c>
       <c r="H4">
-        <v>0.5412828454907218</v>
+        <v>0.9285304131423285</v>
       </c>
       <c r="I4">
-        <v>166.546239164567</v>
+        <v>285.6976709073023</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024081212</v>
       </c>
       <c r="B5">
-        <v>71.74939497272287</v>
+        <v>123.0807440356549</v>
       </c>
       <c r="C5">
-        <v>2.425662476972176</v>
+        <v>4.161043344805995</v>
       </c>
       <c r="D5">
-        <v>22.83681722720601</v>
+        <v>39.17485933922308</v>
       </c>
       <c r="E5">
-        <v>9.061745928949581</v>
+        <v>15.54475033024596</v>
       </c>
       <c r="F5">
-        <v>19.31029742414993</v>
+        <v>33.12537723025719</v>
       </c>
       <c r="G5">
-        <v>49.79531804051796</v>
+        <v>85.42015993652679</v>
       </c>
       <c r="H5">
-        <v>0.5412828454907218</v>
+        <v>0.9285304131423285</v>
       </c>
       <c r="I5">
-        <v>175.7205189160092</v>
+        <v>301.4354646298562</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024081213</v>
       </c>
       <c r="B6">
-        <v>73.17560618777696</v>
+        <v>125.5273031678621</v>
       </c>
       <c r="C6">
-        <v>4.244909334701311</v>
+        <v>7.281825853410492</v>
       </c>
       <c r="D6">
-        <v>23.82972232404106</v>
+        <v>40.87811409310234</v>
       </c>
       <c r="E6">
-        <v>10.06860658772175</v>
+        <v>17.27194481138439</v>
       </c>
       <c r="F6">
-        <v>25.37924804316847</v>
+        <v>43.53621007405231</v>
       </c>
       <c r="G6">
-        <v>55.32813115613105</v>
+        <v>94.91128881836312</v>
       </c>
       <c r="H6">
-        <v>2.165131381962887</v>
+        <v>3.714121652569314</v>
       </c>
       <c r="I6">
-        <v>194.1913550155035</v>
+        <v>333.1208084707441</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024081214</v>
       </c>
       <c r="B7">
-        <v>65.38629878248138</v>
+        <v>112.1653263688843</v>
       </c>
       <c r="C7">
-        <v>2.425662476972176</v>
+        <v>4.161043344805995</v>
       </c>
       <c r="D7">
-        <v>29.78715290505132</v>
+        <v>51.09764261637793</v>
       </c>
       <c r="E7">
-        <v>11.07546724649393</v>
+        <v>18.99913929252283</v>
       </c>
       <c r="F7">
-        <v>27.8620005691306</v>
+        <v>47.79518714651393</v>
       </c>
       <c r="G7">
-        <v>49.79531804051796</v>
+        <v>85.42015993652679</v>
       </c>
       <c r="H7">
-        <v>8.660525527851549</v>
+        <v>14.85648661027726</v>
       </c>
       <c r="I7">
-        <v>194.9924255484989</v>
+        <v>334.494985315909</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024081215</v>
       </c>
       <c r="B8">
-        <v>72.07852063773531</v>
+        <v>123.6453346046258</v>
       </c>
       <c r="C8">
-        <v>2.728870286593699</v>
+        <v>4.681173762906743</v>
       </c>
       <c r="D8">
-        <v>38.72329877656673</v>
+        <v>66.42693540129132</v>
       </c>
       <c r="E8">
-        <v>12.08232790526611</v>
+        <v>20.72633377366127</v>
       </c>
       <c r="F8">
-        <v>19.31029742414993</v>
+        <v>33.12537723025719</v>
       </c>
       <c r="G8">
-        <v>40.94281705553698</v>
+        <v>70.2343537255887</v>
       </c>
       <c r="H8">
-        <v>4.330262763925774</v>
+        <v>7.428243305138628</v>
       </c>
       <c r="I8">
-        <v>190.1963948497745</v>
+        <v>326.2677518034697</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024081216</v>
       </c>
       <c r="B9">
-        <v>79.09986815800183</v>
+        <v>135.6899334093382</v>
       </c>
       <c r="C9">
-        <v>1.819246857729133</v>
+        <v>3.120782508604496</v>
       </c>
       <c r="D9">
-        <v>35.74458348606159</v>
+        <v>61.31717113965351</v>
       </c>
       <c r="E9">
-        <v>21.14407383421569</v>
+        <v>36.27108410390723</v>
       </c>
       <c r="F9">
-        <v>22.62063412543277</v>
+        <v>38.8040133268727</v>
       </c>
       <c r="G9">
-        <v>32.09031607055602</v>
+        <v>55.04854751465059</v>
       </c>
       <c r="H9">
-        <v>2.706414227453608</v>
+        <v>4.642652065711642</v>
       </c>
       <c r="I9">
-        <v>195.2251367594506</v>
+        <v>334.8941840687383</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,28 +670,28 @@
         <v>2024081217</v>
       </c>
       <c r="B10">
-        <v>112.6706859892758</v>
+        <v>193.2781714443694</v>
       </c>
       <c r="C10">
-        <v>2.728870286593699</v>
+        <v>4.681173762906743</v>
       </c>
       <c r="D10">
-        <v>29.78715290505132</v>
+        <v>51.09764261637793</v>
       </c>
       <c r="E10">
-        <v>18.12349185789916</v>
+        <v>31.08950066049192</v>
       </c>
       <c r="F10">
-        <v>19.03443603237636</v>
+        <v>32.65215755553923</v>
       </c>
       <c r="G10">
-        <v>25.45094033182029</v>
+        <v>43.65919285644703</v>
       </c>
       <c r="H10">
-        <v>2.165131381962887</v>
+        <v>3.714121652569314</v>
       </c>
       <c r="I10">
-        <v>209.9607087849795</v>
+        <v>360.1719605487016</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -699,25 +699,25 @@
         <v>2024081218</v>
       </c>
       <c r="B11">
-        <v>112.3415603242633</v>
+        <v>192.7135808753985</v>
       </c>
       <c r="C11">
-        <v>2.425662476972176</v>
+        <v>4.161043344805995</v>
       </c>
       <c r="D11">
-        <v>24.8226274208761</v>
+        <v>42.5813688469816</v>
       </c>
       <c r="E11">
-        <v>27.18523778684873</v>
+        <v>46.63425099073786</v>
       </c>
       <c r="F11">
-        <v>11.03445567094281</v>
+        <v>18.92878698871839</v>
       </c>
       <c r="G11">
-        <v>26.55750295494291</v>
+        <v>45.55741863281429</v>
       </c>
       <c r="I11">
-        <v>204.367046634846</v>
+        <v>350.5764496794566</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -725,25 +725,25 @@
         <v>2024081219</v>
       </c>
       <c r="B12">
-        <v>87.32800978331404</v>
+        <v>149.8046976336106</v>
       </c>
       <c r="C12">
-        <v>4.548117144322831</v>
+        <v>7.801956271511239</v>
       </c>
       <c r="D12">
-        <v>17.8722917430308</v>
+        <v>30.65858556982676</v>
       </c>
       <c r="E12">
-        <v>23.15779515176004</v>
+        <v>39.72547306618411</v>
       </c>
       <c r="F12">
-        <v>12.96548541335781</v>
+        <v>22.24132471174411</v>
       </c>
       <c r="G12">
-        <v>25.45094033182029</v>
+        <v>43.65919285644703</v>
       </c>
       <c r="I12">
-        <v>171.3226395676058</v>
+        <v>293.8912301093238</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,28 +751,28 @@
         <v>2024081220</v>
       </c>
       <c r="B13">
-        <v>69.99405809265623</v>
+        <v>120.0695943344767</v>
       </c>
       <c r="C13">
-        <v>3.335285905836743</v>
+        <v>5.721434599108244</v>
       </c>
       <c r="D13">
-        <v>21.84391213037097</v>
+        <v>37.47160458534383</v>
       </c>
       <c r="E13">
-        <v>16.10977054035481</v>
+        <v>27.63511169821502</v>
       </c>
       <c r="F13">
-        <v>7.724118969659971</v>
+        <v>13.25015089210287</v>
       </c>
       <c r="G13">
-        <v>45.36906754802747</v>
+        <v>77.82725683105777</v>
       </c>
       <c r="H13">
-        <v>0.5412828454907218</v>
+        <v>0.9285304131423285</v>
       </c>
       <c r="I13">
-        <v>164.9174960323969</v>
+        <v>282.9036833534468</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -780,25 +780,25 @@
         <v>2024081221</v>
       </c>
       <c r="B14">
-        <v>52.33098073698594</v>
+        <v>89.76990046637218</v>
       </c>
       <c r="C14">
-        <v>2.425662476972176</v>
+        <v>4.161043344805995</v>
       </c>
       <c r="D14">
-        <v>11.91486116202053</v>
+        <v>20.43905704655117</v>
       </c>
       <c r="E14">
-        <v>9.061745928949581</v>
+        <v>15.54475033024596</v>
       </c>
       <c r="F14">
-        <v>5.793089227244978</v>
+        <v>9.937613169077155</v>
       </c>
       <c r="G14">
-        <v>46.47563017115009</v>
+        <v>79.72548260742501</v>
       </c>
       <c r="I14">
-        <v>128.0019697033233</v>
+        <v>219.5778469644775</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -806,25 +806,25 @@
         <v>2024081222</v>
       </c>
       <c r="B15">
-        <v>34.44848627130731</v>
+        <v>59.09381288562023</v>
       </c>
       <c r="C15">
-        <v>3.335285905836743</v>
+        <v>5.721434599108244</v>
       </c>
       <c r="D15">
-        <v>11.91486116202053</v>
+        <v>20.43905704655117</v>
       </c>
       <c r="E15">
-        <v>9.061745928949581</v>
+        <v>15.54475033024596</v>
       </c>
       <c r="F15">
-        <v>6.896534794339262</v>
+        <v>11.83049186794899</v>
       </c>
       <c r="G15">
-        <v>28.77062820118815</v>
+        <v>49.35387018554881</v>
       </c>
       <c r="I15">
-        <v>94.42754226364157</v>
+        <v>161.9834169150234</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -832,25 +832,25 @@
         <v>2024081223</v>
       </c>
       <c r="B16">
-        <v>17.22424313565365</v>
+        <v>29.54690644281012</v>
       </c>
       <c r="C16">
-        <v>2.728870286593699</v>
+        <v>4.681173762906743</v>
       </c>
       <c r="D16">
-        <v>6.95033567784531</v>
+        <v>11.92278327715485</v>
       </c>
       <c r="E16">
-        <v>7.04802461140523</v>
+        <v>12.09036136796908</v>
       </c>
       <c r="F16">
-        <v>3.034475309509275</v>
+        <v>5.205416421897559</v>
       </c>
       <c r="G16">
-        <v>22.13125246245242</v>
+        <v>37.96451552734526</v>
       </c>
       <c r="I16">
-        <v>59.1172014834596</v>
+        <v>101.4111568000836</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -858,25 +858,25 @@
         <v>2024081300</v>
       </c>
       <c r="B17">
-        <v>12.50677527047463</v>
+        <v>21.45444162089397</v>
       </c>
       <c r="C17">
-        <v>2.425662476972176</v>
+        <v>4.161043344805995</v>
       </c>
       <c r="D17">
-        <v>0.9929050968350439</v>
+        <v>1.703254753879265</v>
       </c>
       <c r="E17">
-        <v>5.034303293860876</v>
+        <v>8.635972405692197</v>
       </c>
       <c r="F17">
-        <v>3.310336701282845</v>
+        <v>5.678636096615517</v>
       </c>
       <c r="G17">
-        <v>14.38531410059407</v>
+        <v>24.6769350927744</v>
       </c>
       <c r="I17">
-        <v>38.65529694001964</v>
+        <v>66.31028331466135</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -884,25 +884,25 @@
         <v>2024081301</v>
       </c>
       <c r="B18">
-        <v>7.350473185278951</v>
+        <v>12.6091893736833</v>
       </c>
       <c r="C18">
-        <v>4.244909334701311</v>
+        <v>7.281825853410492</v>
       </c>
       <c r="D18">
-        <v>3.971620387340176</v>
+        <v>6.813019015517058</v>
       </c>
       <c r="E18">
-        <v>3.020581976316527</v>
+        <v>5.181583443415318</v>
       </c>
       <c r="F18">
-        <v>2.758613917735703</v>
+        <v>4.732196747179598</v>
       </c>
       <c r="G18">
-        <v>14.38531410059407</v>
+        <v>24.6769350927744</v>
       </c>
       <c r="I18">
-        <v>35.73151290196674</v>
+        <v>61.29474952598017</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -910,22 +910,22 @@
         <v>2024081302</v>
       </c>
       <c r="B19">
-        <v>5.814553415220659</v>
+        <v>9.974433385152464</v>
       </c>
       <c r="C19">
-        <v>1.819246857729133</v>
+        <v>3.120782508604496</v>
       </c>
       <c r="D19">
-        <v>0.9929050968350439</v>
+        <v>1.703254753879265</v>
       </c>
       <c r="F19">
-        <v>2.758613917735703</v>
+        <v>4.732196747179598</v>
       </c>
       <c r="G19">
-        <v>15.49187672371669</v>
+        <v>26.57516086914167</v>
       </c>
       <c r="I19">
-        <v>26.87719601123723</v>
+        <v>46.10582826395749</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -933,25 +933,25 @@
         <v>2024081303</v>
       </c>
       <c r="B20">
-        <v>5.156302085195676</v>
+        <v>8.845252247210672</v>
       </c>
       <c r="C20">
-        <v>0.9096234288645663</v>
+        <v>1.560391254302248</v>
       </c>
       <c r="D20">
-        <v>3.971620387340176</v>
+        <v>6.813019015517058</v>
       </c>
       <c r="E20">
-        <v>1.006860658772176</v>
+        <v>1.727194481138439</v>
       </c>
       <c r="F20">
-        <v>4.689643660150697</v>
+        <v>8.044734470205318</v>
       </c>
       <c r="G20">
-        <v>21.0246898393298</v>
+        <v>36.06628975097798</v>
       </c>
       <c r="I20">
-        <v>36.75874005965309</v>
+        <v>63.05688121935172</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,25 +959,25 @@
         <v>2024081304</v>
       </c>
       <c r="B21">
-        <v>10.64172983540385</v>
+        <v>18.25509506339224</v>
       </c>
       <c r="C21">
-        <v>0.9096234288645663</v>
+        <v>1.560391254302248</v>
       </c>
       <c r="D21">
-        <v>5.957430581010264</v>
+        <v>10.21952852327559</v>
       </c>
       <c r="E21">
-        <v>3.020581976316527</v>
+        <v>5.181583443415318</v>
       </c>
       <c r="F21">
-        <v>4.413782268377125</v>
+        <v>7.571514795487357</v>
       </c>
       <c r="G21">
-        <v>47.5821927942727</v>
+        <v>81.62370838379228</v>
       </c>
       <c r="I21">
-        <v>72.52534088424503</v>
+        <v>124.411821463665</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -985,25 +985,25 @@
         <v>2024081305</v>
       </c>
       <c r="B22">
-        <v>27.97568152606165</v>
+        <v>47.990198362526</v>
       </c>
       <c r="C22">
-        <v>0.9096234288645663</v>
+        <v>1.560391254302248</v>
       </c>
       <c r="D22">
-        <v>19.85810193670088</v>
+        <v>34.06509507758528</v>
       </c>
       <c r="E22">
-        <v>9.061745928949581</v>
+        <v>15.54475033024596</v>
       </c>
       <c r="F22">
-        <v>7.172396186112829</v>
+        <v>12.30371154266695</v>
       </c>
       <c r="G22">
-        <v>89.63157247293233</v>
+        <v>153.7562878857482</v>
       </c>
       <c r="I22">
-        <v>154.6091214796218</v>
+        <v>265.2204344530747</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1011,28 +1011,28 @@
         <v>2024081306</v>
       </c>
       <c r="B23">
-        <v>64.28921323243974</v>
+        <v>110.2833578056479</v>
       </c>
       <c r="C23">
-        <v>1.819246857729133</v>
+        <v>3.120782508604496</v>
       </c>
       <c r="D23">
-        <v>16.87938664619575</v>
+        <v>28.95533081594749</v>
       </c>
       <c r="E23">
-        <v>34.23326239825398</v>
+        <v>58.72461235870693</v>
       </c>
       <c r="F23">
-        <v>19.31029742414993</v>
+        <v>33.12537723025719</v>
       </c>
       <c r="G23">
-        <v>81.88563411107397</v>
+        <v>140.4687074511774</v>
       </c>
       <c r="H23">
-        <v>2.165131381962887</v>
+        <v>3.714121652569314</v>
       </c>
       <c r="I23">
-        <v>220.5821720518054</v>
+        <v>378.3922898229108</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1040,28 +1040,28 @@
         <v>2024081307</v>
       </c>
       <c r="B24">
-        <v>83.15908469315576</v>
+        <v>142.6532170933125</v>
       </c>
       <c r="C24">
-        <v>2.122454667350655</v>
+        <v>3.640912926705246</v>
       </c>
       <c r="D24">
-        <v>16.87938664619575</v>
+        <v>28.95533081594749</v>
       </c>
       <c r="E24">
-        <v>21.14407383421569</v>
+        <v>36.27108410390723</v>
       </c>
       <c r="F24">
-        <v>17.37926768173493</v>
+        <v>29.81283950723147</v>
       </c>
       <c r="G24">
-        <v>66.39375738735727</v>
+        <v>113.8935465820358</v>
       </c>
       <c r="H24">
-        <v>2.165131381962887</v>
+        <v>3.714121652569314</v>
       </c>
       <c r="I24">
-        <v>209.243156291973</v>
+        <v>358.941052681709</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1069,28 +1069,28 @@
         <v>2024081308</v>
       </c>
       <c r="B25">
-        <v>97.75032250870966</v>
+        <v>167.6833989843555</v>
       </c>
       <c r="C25">
-        <v>1.51603904810761</v>
+        <v>2.600652090503747</v>
       </c>
       <c r="D25">
-        <v>28.79424780821627</v>
+        <v>49.39438786249868</v>
       </c>
       <c r="E25">
-        <v>19.13035251667133</v>
+        <v>32.81669514163035</v>
       </c>
       <c r="F25">
-        <v>14.62065376399923</v>
+        <v>25.08064276005187</v>
       </c>
       <c r="G25">
-        <v>53.11500590988582</v>
+        <v>91.11483726562858</v>
       </c>
       <c r="H25">
-        <v>3.247697072944331</v>
+        <v>5.571182478853972</v>
       </c>
       <c r="I25">
-        <v>218.1743186285343</v>
+        <v>374.2617965835227</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1098,28 +1098,28 @@
         <v>2024081309</v>
       </c>
       <c r="B26">
-        <v>79.64841093302259</v>
+        <v>136.6309176909564</v>
       </c>
       <c r="C26">
-        <v>4.851324953944353</v>
+        <v>8.322086689611989</v>
       </c>
       <c r="D26">
-        <v>25.81553251771114</v>
+        <v>44.28462360086085</v>
       </c>
       <c r="E26">
-        <v>19.13035251667133</v>
+        <v>32.81669514163035</v>
       </c>
       <c r="F26">
-        <v>22.06891134188563</v>
+        <v>37.85757397743679</v>
       </c>
       <c r="G26">
-        <v>79.67250886482874</v>
+        <v>136.6722558984429</v>
       </c>
       <c r="H26">
-        <v>3.788979918435052</v>
+        <v>6.499712891996301</v>
       </c>
       <c r="I26">
-        <v>234.9760210464989</v>
+        <v>403.0838658909356</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1127,28 +1127,28 @@
         <v>2024081310</v>
       </c>
       <c r="B27">
-        <v>57.59699137718577</v>
+        <v>98.80334956990644</v>
       </c>
       <c r="C27">
-        <v>3.638493715458265</v>
+        <v>6.241565017208993</v>
       </c>
       <c r="D27">
-        <v>23.82972232404106</v>
+        <v>40.87811409310234</v>
       </c>
       <c r="E27">
-        <v>7.04802461140523</v>
+        <v>12.09036136796908</v>
       </c>
       <c r="F27">
-        <v>26.75855500203633</v>
+        <v>45.9023084476421</v>
       </c>
       <c r="G27">
-        <v>66.39375738735727</v>
+        <v>113.8935465820358</v>
       </c>
       <c r="H27">
-        <v>3.247697072944331</v>
+        <v>5.571182478853972</v>
       </c>
       <c r="I27">
-        <v>188.5132414904282</v>
+        <v>323.3804275567187</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1156,28 +1156,28 @@
         <v>2024081311</v>
       </c>
       <c r="B28">
-        <v>62.20475068736065</v>
+        <v>106.707617535499</v>
       </c>
       <c r="C28">
-        <v>2.122454667350655</v>
+        <v>3.640912926705246</v>
       </c>
       <c r="D28">
-        <v>26.80843761454619</v>
+        <v>45.98787835474013</v>
       </c>
       <c r="E28">
-        <v>10.06860658772175</v>
+        <v>17.27194481138439</v>
       </c>
       <c r="F28">
-        <v>22.06891134188563</v>
+        <v>37.85757397743679</v>
       </c>
       <c r="G28">
-        <v>57.54125640237629</v>
+        <v>98.70774037109761</v>
       </c>
       <c r="H28">
-        <v>0.5412828454907218</v>
+        <v>0.9285304131423285</v>
       </c>
       <c r="I28">
-        <v>181.3557001467319</v>
+        <v>311.1021983900055</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1185,28 +1185,28 @@
         <v>2024081312</v>
       </c>
       <c r="B29">
-        <v>68.67755543260627</v>
+        <v>117.8112320585933</v>
       </c>
       <c r="C29">
-        <v>3.335285905836743</v>
+        <v>5.721434599108244</v>
       </c>
       <c r="D29">
-        <v>19.85810193670088</v>
+        <v>34.06509507758528</v>
       </c>
       <c r="E29">
-        <v>9.061745928949581</v>
+        <v>15.54475033024596</v>
       </c>
       <c r="F29">
-        <v>22.62063412543277</v>
+        <v>38.8040133268727</v>
       </c>
       <c r="G29">
-        <v>39.83625443241437</v>
+        <v>68.33612794922145</v>
       </c>
       <c r="H29">
-        <v>2.165131381962887</v>
+        <v>3.714121652569314</v>
       </c>
       <c r="I29">
-        <v>165.5547091439035</v>
+        <v>283.9967749941962</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1214,28 +1214,28 @@
         <v>2024081313</v>
       </c>
       <c r="B30">
-        <v>75.47948584286438</v>
+        <v>129.4794371506583</v>
       </c>
       <c r="C30">
-        <v>3.638493715458265</v>
+        <v>6.241565017208993</v>
       </c>
       <c r="D30">
-        <v>24.8226274208761</v>
+        <v>42.5813688469816</v>
       </c>
       <c r="E30">
-        <v>9.061745928949581</v>
+        <v>15.54475033024596</v>
       </c>
       <c r="F30">
-        <v>17.93099046528208</v>
+        <v>30.75927885666738</v>
       </c>
       <c r="G30">
-        <v>46.47563017115009</v>
+        <v>79.72548260742501</v>
       </c>
       <c r="H30">
-        <v>0.5412828454907218</v>
+        <v>0.9285304131423285</v>
       </c>
       <c r="I30">
-        <v>177.9502563900712</v>
+        <v>305.2604132223295</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1243,28 +1243,28 @@
         <v>2024081314</v>
       </c>
       <c r="B31">
-        <v>70.65230942268121</v>
+        <v>121.1987754724185</v>
       </c>
       <c r="C31">
-        <v>2.728870286593699</v>
+        <v>4.681173762906743</v>
       </c>
       <c r="D31">
-        <v>24.8226274208761</v>
+        <v>42.5813688469816</v>
       </c>
       <c r="E31">
-        <v>8.054885270177405</v>
+        <v>13.81755584910751</v>
       </c>
       <c r="F31">
-        <v>27.0344163938099</v>
+        <v>46.37552812236007</v>
       </c>
       <c r="G31">
-        <v>44.26250492490485</v>
+        <v>75.92903105469051</v>
       </c>
       <c r="H31">
-        <v>2.706414227453608</v>
+        <v>4.642652065711642</v>
       </c>
       <c r="I31">
-        <v>180.2620279464968</v>
+        <v>309.2260851741766</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1272,28 +1272,28 @@
         <v>2024081315</v>
       </c>
       <c r="B32">
-        <v>79.97753659803509</v>
+        <v>137.1955082599272</v>
       </c>
       <c r="C32">
-        <v>3.941701525079786</v>
+        <v>6.76169543530974</v>
       </c>
       <c r="D32">
-        <v>18.86519683986584</v>
+        <v>32.36184032370603</v>
       </c>
       <c r="E32">
-        <v>8.054885270177405</v>
+        <v>13.81755584910751</v>
       </c>
       <c r="F32">
-        <v>19.03443603237636</v>
+        <v>32.65215755553923</v>
       </c>
       <c r="G32">
-        <v>46.47563017115009</v>
+        <v>79.72548260742501</v>
       </c>
       <c r="H32">
-        <v>1.623848536472165</v>
+        <v>2.785591239426986</v>
       </c>
       <c r="I32">
-        <v>177.9732349731567</v>
+        <v>305.2998312704418</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1301,28 +1301,28 @@
         <v>2024081316</v>
       </c>
       <c r="B33">
-        <v>86.77946700829321</v>
+        <v>148.8637133519923</v>
       </c>
       <c r="C33">
-        <v>2.425662476972176</v>
+        <v>4.161043344805995</v>
       </c>
       <c r="D33">
-        <v>34.75167838922653</v>
+        <v>59.61391638577427</v>
       </c>
       <c r="E33">
-        <v>19.13035251667133</v>
+        <v>32.81669514163035</v>
       </c>
       <c r="F33">
-        <v>23.17235690897991</v>
+        <v>39.75045267630862</v>
       </c>
       <c r="G33">
-        <v>27.66406557806553</v>
+        <v>47.45564440918156</v>
       </c>
       <c r="H33">
-        <v>2.706414227453608</v>
+        <v>4.642652065711642</v>
       </c>
       <c r="I33">
-        <v>196.6299971056623</v>
+        <v>337.3041173754048</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024081317</v>
       </c>
       <c r="B34">
-        <v>103.7842930339385</v>
+        <v>178.0342260821553</v>
       </c>
       <c r="C34">
-        <v>3.335285905836743</v>
+        <v>5.721434599108244</v>
       </c>
       <c r="D34">
-        <v>31.77296309872141</v>
+        <v>54.50415212413647</v>
       </c>
       <c r="E34">
-        <v>22.15093449298786</v>
+        <v>37.99827858504567</v>
       </c>
       <c r="F34">
-        <v>15.72409933109351</v>
+        <v>26.97352145892371</v>
       </c>
       <c r="G34">
-        <v>17.70500196996194</v>
+        <v>30.37161242187619</v>
       </c>
       <c r="H34">
-        <v>0.5412828454907218</v>
+        <v>0.9285304131423285</v>
       </c>
       <c r="I34">
-        <v>195.0138606780307</v>
+        <v>334.5317556843879</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,25 +1359,25 @@
         <v>2024081318</v>
       </c>
       <c r="B35">
-        <v>109.2697207841468</v>
+        <v>187.4440688983368</v>
       </c>
       <c r="C35">
-        <v>2.122454667350655</v>
+        <v>3.640912926705246</v>
       </c>
       <c r="D35">
-        <v>22.83681722720601</v>
+        <v>39.17485933922308</v>
       </c>
       <c r="E35">
-        <v>27.18523778684873</v>
+        <v>46.63425099073786</v>
       </c>
       <c r="F35">
-        <v>8.275841753207112</v>
+        <v>14.19659024153879</v>
       </c>
       <c r="G35">
-        <v>24.34437770869766</v>
+        <v>41.76096708007977</v>
       </c>
       <c r="I35">
-        <v>194.034449927457</v>
+        <v>332.8516494766215</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1385,25 +1385,25 @@
         <v>2024081319</v>
       </c>
       <c r="B36">
-        <v>102.0289561538719</v>
+        <v>175.0230763809771</v>
       </c>
       <c r="C36">
-        <v>1.51603904810761</v>
+        <v>2.600652090503747</v>
       </c>
       <c r="D36">
-        <v>23.82972232404106</v>
+        <v>40.87811409310234</v>
       </c>
       <c r="E36">
-        <v>20.13721317544351</v>
+        <v>34.54388962276879</v>
       </c>
       <c r="F36">
-        <v>11.58617845448996</v>
+        <v>19.87522633815431</v>
       </c>
       <c r="G36">
-        <v>36.51656656304649</v>
+        <v>62.64145062011968</v>
       </c>
       <c r="I36">
-        <v>195.6146757190005</v>
+        <v>335.562409145626</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1411,25 +1411,25 @@
         <v>2024081320</v>
       </c>
       <c r="B37">
-        <v>63.19212768239813</v>
+        <v>108.4013892424117</v>
       </c>
       <c r="C37">
-        <v>3.335285905836743</v>
+        <v>5.721434599108244</v>
       </c>
       <c r="D37">
-        <v>21.84391213037097</v>
+        <v>37.47160458534383</v>
       </c>
       <c r="E37">
-        <v>24.16465581053221</v>
+        <v>41.45266754732254</v>
       </c>
       <c r="F37">
-        <v>5.517227835471407</v>
+        <v>9.464393494359197</v>
       </c>
       <c r="G37">
-        <v>37.62312918616911</v>
+        <v>64.53967639648691</v>
       </c>
       <c r="I37">
-        <v>155.6763385507786</v>
+        <v>267.0511658650324</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1437,25 +1437,25 @@
         <v>2024081321</v>
       </c>
       <c r="B38">
-        <v>54.19602617205672</v>
+        <v>92.96924702387385</v>
       </c>
       <c r="C38">
-        <v>2.728870286593699</v>
+        <v>4.681173762906743</v>
       </c>
       <c r="D38">
-        <v>17.8722917430308</v>
+        <v>30.65858556982676</v>
       </c>
       <c r="E38">
-        <v>10.06860658772175</v>
+        <v>17.27194481138439</v>
       </c>
       <c r="F38">
-        <v>7.448257577886398</v>
+        <v>12.77693121738491</v>
       </c>
       <c r="G38">
-        <v>36.51656656304649</v>
+        <v>62.64145062011968</v>
       </c>
       <c r="I38">
-        <v>128.8306189303358</v>
+        <v>220.9993330054963</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1463,28 +1463,28 @@
         <v>2024081322</v>
       </c>
       <c r="B39">
-        <v>37.63003436642802</v>
+        <v>64.55152171900559</v>
       </c>
       <c r="C39">
-        <v>4.244909334701311</v>
+        <v>7.281825853410492</v>
       </c>
       <c r="D39">
-        <v>10.92195606518549</v>
+        <v>18.73580229267192</v>
       </c>
       <c r="E39">
-        <v>13.08918856403828</v>
+        <v>22.45352825479972</v>
       </c>
       <c r="F39">
-        <v>4.413782268377125</v>
+        <v>7.571514795487357</v>
       </c>
       <c r="G39">
-        <v>29.87719082431076</v>
+        <v>51.25209596191605</v>
       </c>
       <c r="H39">
-        <v>0.5412828454907218</v>
+        <v>0.9285304131423285</v>
       </c>
       <c r="I39">
-        <v>100.7183442685317</v>
+        <v>172.7748192904335</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1492,25 +1492,25 @@
         <v>2024081323</v>
       </c>
       <c r="B40">
-        <v>23.47763077089097</v>
+        <v>40.27412725325711</v>
       </c>
       <c r="C40">
-        <v>2.728870286593699</v>
+        <v>4.681173762906743</v>
       </c>
       <c r="D40">
-        <v>3.971620387340176</v>
+        <v>6.813019015517058</v>
       </c>
       <c r="E40">
-        <v>7.04802461140523</v>
+        <v>12.09036136796908</v>
       </c>
       <c r="F40">
-        <v>4.137920876603556</v>
+        <v>7.098295120769397</v>
       </c>
       <c r="G40">
-        <v>14.38531410059407</v>
+        <v>24.6769350927744</v>
       </c>
       <c r="I40">
-        <v>55.7493810334277</v>
+        <v>95.63391161319379</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1518,25 +1518,25 @@
         <v>2024081400</v>
       </c>
       <c r="B41">
-        <v>12.61648382547879</v>
+        <v>21.6426384772176</v>
       </c>
       <c r="C41">
-        <v>4.244909334701311</v>
+        <v>7.281825853410492</v>
       </c>
       <c r="D41">
-        <v>3.971620387340176</v>
+        <v>6.813019015517058</v>
       </c>
       <c r="E41">
-        <v>5.034303293860876</v>
+        <v>8.635972405692197</v>
       </c>
       <c r="F41">
-        <v>4.413782268377125</v>
+        <v>7.571514795487357</v>
       </c>
       <c r="G41">
-        <v>16.59843934683932</v>
+        <v>28.47338664550894</v>
       </c>
       <c r="I41">
-        <v>46.87953845659759</v>
+        <v>80.41835719283365</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1544,25 +1544,25 @@
         <v>2024081401</v>
       </c>
       <c r="B42">
-        <v>7.350473185278951</v>
+        <v>12.6091893736833</v>
       </c>
       <c r="C42">
-        <v>2.425662476972176</v>
+        <v>4.161043344805995</v>
       </c>
       <c r="D42">
-        <v>2.978715290505132</v>
+        <v>5.109764261637793</v>
       </c>
       <c r="E42">
-        <v>4.027442635088702</v>
+        <v>6.908777924553756</v>
       </c>
       <c r="F42">
-        <v>4.137920876603556</v>
+        <v>7.098295120769397</v>
       </c>
       <c r="G42">
-        <v>11.06562623122621</v>
+        <v>18.98225776367263</v>
       </c>
       <c r="I42">
-        <v>31.98584069567473</v>
+        <v>54.86932778912287</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1570,22 +1570,22 @@
         <v>2024081402</v>
       </c>
       <c r="B43">
-        <v>5.595136305212333</v>
+        <v>9.598039672505193</v>
       </c>
       <c r="C43">
-        <v>1.819246857729133</v>
+        <v>3.120782508604496</v>
       </c>
       <c r="D43">
-        <v>1.985810193670088</v>
+        <v>3.406509507758529</v>
       </c>
       <c r="F43">
-        <v>2.758613917735703</v>
+        <v>4.732196747179598</v>
       </c>
       <c r="G43">
-        <v>19.91812721620719</v>
+        <v>34.16806397461072</v>
       </c>
       <c r="I43">
-        <v>32.07693449055444</v>
+        <v>55.02559241065854</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,25 +1593,25 @@
         <v>2024081403</v>
       </c>
       <c r="B44">
-        <v>4.278633645162373</v>
+        <v>7.339677396621621</v>
       </c>
       <c r="C44">
-        <v>0.9096234288645663</v>
+        <v>1.560391254302248</v>
       </c>
       <c r="D44">
-        <v>1.985810193670088</v>
+        <v>3.406509507758529</v>
       </c>
       <c r="E44">
-        <v>1.006860658772176</v>
+        <v>1.727194481138439</v>
       </c>
       <c r="F44">
-        <v>4.413782268377125</v>
+        <v>7.571514795487357</v>
       </c>
       <c r="G44">
-        <v>25.45094033182029</v>
+        <v>43.65919285644703</v>
       </c>
       <c r="I44">
-        <v>38.04565052666662</v>
+        <v>65.26448029175522</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1619,25 +1619,25 @@
         <v>2024081404</v>
       </c>
       <c r="B45">
-        <v>12.94560949049127</v>
+        <v>22.2072290461885</v>
       </c>
       <c r="C45">
-        <v>1.51603904810761</v>
+        <v>2.600652090503747</v>
       </c>
       <c r="D45">
-        <v>7.943240774680351</v>
+        <v>13.62603803103412</v>
       </c>
       <c r="E45">
-        <v>5.034303293860876</v>
+        <v>8.635972405692197</v>
       </c>
       <c r="F45">
-        <v>5.241366443697836</v>
+        <v>8.991173819641237</v>
       </c>
       <c r="G45">
-        <v>42.04937967865961</v>
+        <v>72.13257950195596</v>
       </c>
       <c r="I45">
-        <v>74.72993872949755</v>
+        <v>128.1936448950158</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1645,25 +1645,25 @@
         <v>2024081405</v>
       </c>
       <c r="B46">
-        <v>22.92908799587014</v>
+        <v>39.33314297163894</v>
       </c>
       <c r="D46">
-        <v>19.85810193670088</v>
+        <v>34.06509507758528</v>
       </c>
       <c r="E46">
-        <v>12.08232790526611</v>
+        <v>20.72633377366127</v>
       </c>
       <c r="F46">
-        <v>9.103425928527821</v>
+        <v>15.61624926569267</v>
       </c>
       <c r="G46">
-        <v>91.84469771917755</v>
+        <v>157.5527394384827</v>
       </c>
       <c r="H46">
-        <v>1.623848536472165</v>
+        <v>2.785591239426986</v>
       </c>
       <c r="I46">
-        <v>157.4414900220146</v>
+        <v>270.0791517664879</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1671,28 +1671,28 @@
         <v>2024081406</v>
       </c>
       <c r="B47">
-        <v>67.69017843756876</v>
+        <v>116.1174603516805</v>
       </c>
       <c r="C47">
-        <v>2.425662476972176</v>
+        <v>4.161043344805995</v>
       </c>
       <c r="D47">
-        <v>22.83681722720601</v>
+        <v>39.17485933922308</v>
       </c>
       <c r="E47">
-        <v>34.23326239825398</v>
+        <v>58.72461235870693</v>
       </c>
       <c r="F47">
-        <v>19.5861588159235</v>
+        <v>33.59859690497515</v>
       </c>
       <c r="G47">
-        <v>94.05782296542279</v>
+        <v>161.3491909912173</v>
       </c>
       <c r="H47">
-        <v>1.082565690981444</v>
+        <v>1.857060826284657</v>
       </c>
       <c r="I47">
-        <v>241.9124680123286</v>
+        <v>414.9828241168936</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1700,28 +1700,28 @@
         <v>2024081407</v>
       </c>
       <c r="B48">
-        <v>80.85520503806843</v>
+        <v>138.7010831105163</v>
       </c>
       <c r="C48">
-        <v>4.548117144322831</v>
+        <v>7.801956271511239</v>
       </c>
       <c r="D48">
-        <v>14.89357645252566</v>
+        <v>25.54882130818896</v>
       </c>
       <c r="E48">
-        <v>22.15093449298786</v>
+        <v>37.99827858504567</v>
       </c>
       <c r="F48">
-        <v>17.93099046528208</v>
+        <v>30.75927885666738</v>
       </c>
       <c r="G48">
-        <v>69.71344525672512</v>
+        <v>119.5882239111376</v>
       </c>
       <c r="H48">
-        <v>2.706414227453608</v>
+        <v>4.642652065711642</v>
       </c>
       <c r="I48">
-        <v>212.7986830773656</v>
+        <v>365.0402941087788</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1729,28 +1729,28 @@
         <v>2024081408</v>
       </c>
       <c r="B49">
-        <v>102.7969160389011</v>
+        <v>176.3404543752425</v>
       </c>
       <c r="C49">
-        <v>1.212831238486088</v>
+        <v>2.080521672402997</v>
       </c>
       <c r="D49">
-        <v>27.80134271138124</v>
+        <v>47.69113310861942</v>
       </c>
       <c r="E49">
-        <v>20.13721317544351</v>
+        <v>34.54388962276879</v>
       </c>
       <c r="F49">
-        <v>16.27582211464065</v>
+        <v>27.91996080835963</v>
       </c>
       <c r="G49">
-        <v>63.0740695179894</v>
+        <v>108.1988692529339</v>
       </c>
       <c r="H49">
-        <v>0.5412828454907218</v>
+        <v>0.9285304131423285</v>
       </c>
       <c r="I49">
-        <v>231.8394776423326</v>
+        <v>397.7033592534696</v>
       </c>
     </row>
   </sheetData>
